--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\Downloads\EVEDRI_Lab_Act2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7FE31C-3645-4EF5-AE12-033D35183728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F9D31-CFA4-424F-B52E-1EDCD668D87C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RECORDS" sheetId="1" r:id="rId1"/>
+    <sheet name="LOGS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -142,6 +143,9 @@
   </si>
   <si>
     <t>sdasdadas</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -547,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -744,4 +748,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\source\repos\EVEDRI_Lab_Act2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F9D31-CFA4-424F-B52E-1EDCD668D87C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D63390-C462-4B10-A866-D24CC128F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECORDS" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,9 +736,6 @@
       <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -754,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\source\repos\EVEDRI_Lab_Act2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D63390-C462-4B10-A866-D24CC128F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RECORDS" sheetId="1" r:id="rId1"/>
     <sheet name="LOGS" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -124,41 +120,63 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>raas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volleyball, </t>
-  </si>
-  <si>
-    <t>dasdas</t>
-  </si>
-  <si>
-    <t>asddsa</t>
-  </si>
-  <si>
-    <t>sadsda</t>
-  </si>
-  <si>
-    <t>adsdas</t>
-  </si>
-  <si>
-    <t>sdasdadas</t>
-  </si>
-  <si>
-    <t>NAME</t>
+    <t>Successfully Added!</t>
+  </si>
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball, Soccer, </t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>BSCpE</t>
+  </si>
+  <si>
+    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 5.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,9 +190,17 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,14 +208,14 @@
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39998"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,16 +229,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,25 +294,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Hyperlink" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -551,29 +696,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.00390625" style="0" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="0" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="0" customWidth="1"/>
+    <col min="4" max="4" width="10.421875" style="0" customWidth="1"/>
+    <col min="5" max="5" width="22.57421875" style="0" customWidth="1"/>
+    <col min="6" max="6" width="23.421875" style="0" customWidth="1"/>
+    <col min="7" max="7" width="16.8515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.8515625" style="0" customWidth="1"/>
+    <col min="10" max="10" width="19.28125" style="0" customWidth="1"/>
+    <col min="11" max="11" width="35.28125" style="0" customWidth="1"/>
+    <col min="12" max="12" width="15.00390625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="82.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -654,11 +799,14 @@
       <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="N2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -695,74 +843,160 @@
       <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5">
-        <v>571</v>
+        <v>44</v>
+      </c>
+      <c r="G4" s="9">
+        <v>38182</v>
       </c>
       <c r="H4" s="2">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="mailto:sad@test.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" display="mailto:test@test.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:sad@test.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="mailto:test@test.com"/>
   </hyperlinks>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.421875" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.00390625" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" style="0" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45788</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45788.41615740741</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="11" ht="15">
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -229,7 +229,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -253,6 +253,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -294,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -306,7 +320,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -315,7 +329,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="48"/>
+    <cellStyle name="Hyperlink" xfId="62"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -931,7 +945,7 @@
         <v>45788</v>
       </c>
       <c r="D1" s="6">
-        <v>45788.41615740741</v>
+        <v>45788.427361111113</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>Successfully Added!</t>
-  </si>
-  <si>
     <t>Spire.XLS for .NET</t>
   </si>
   <si>
@@ -163,6 +160,63 @@
   </si>
   <si>
     <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 5.jpg</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soccer, </t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball, Volleyball, Soccer, </t>
+  </si>
+  <si>
+    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 3.jpg</t>
+  </si>
+  <si>
+    <t>INFORMATION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Successfully Logged In!</t>
+  </si>
+  <si>
+    <t>Successfully Logged Out!</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball, </t>
+  </si>
+  <si>
+    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -206,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -229,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -295,11 +355,227 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -308,19 +584,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="272" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="272"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -329,7 +611,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="62"/>
+    <cellStyle name="Hyperlink" xfId="272"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -708,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="K19" sqref="K19"/>
@@ -722,145 +1004,145 @@
     <col min="4" max="4" width="10.421875" style="0" customWidth="1"/>
     <col min="5" max="5" width="22.57421875" style="0" customWidth="1"/>
     <col min="6" max="6" width="23.421875" style="0" customWidth="1"/>
-    <col min="7" max="7" width="16.8515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.8515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.8515625" style="0" customWidth="1"/>
     <col min="10" max="10" width="19.28125" style="0" customWidth="1"/>
     <col min="11" max="11" width="35.28125" style="0" customWidth="1"/>
-    <col min="12" max="12" width="15.00390625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.00390625" style="4" customWidth="1"/>
     <col min="13" max="13" width="82.7109375" style="0" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.8515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.8515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="15">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>39058</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5">
         <v>123</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7">
+        <v>37106</v>
+      </c>
+      <c r="H3" s="4">
+        <v>132</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5">
-        <v>37106</v>
-      </c>
-      <c r="H3" s="2">
-        <v>132</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -872,39 +1154,215 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="10">
+        <v>38182</v>
+      </c>
+      <c r="H4" s="4">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10">
+        <v>43960</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="10">
+        <v>38177</v>
+      </c>
+      <c r="H6" s="4">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="11">
+        <v>42135</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="9">
-        <v>38182</v>
-      </c>
-      <c r="H4" s="2">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="14">
+        <v>38394</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -921,37 +1379,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.421875" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.00390625" style="0" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46.421875" style="0" customWidth="1"/>
+    <col min="3" max="3" width="22.57421875" style="0" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12">
         <v>45788</v>
       </c>
-      <c r="D1" s="6">
-        <v>45788.427361111113</v>
+      <c r="D2" s="12">
+        <v>45788.615266203706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D3" s="12">
+        <v>45788.618900462963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45788.619479166664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45788.620127314818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D6" s="12">
+        <v>45788.620335648149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D7" s="12">
+        <v>45788.629016203704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D8" s="12">
+        <v>45788.630462962959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45788.631226851852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45788.639490740738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45788.647337962961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45788.648368055554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45788.648460648146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45788.651354166665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45788.658425925925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45788.662893518522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45788.667997685188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D18" s="12">
+        <v>45788.66814814815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D19" s="12">
+        <v>45788.670972222222</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -964,43 +1675,43 @@
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="15">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="B2" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15">
-      <c r="B2" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="B5" s="9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="15">
-      <c r="B5" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="B8" s="9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="15">
-      <c r="B8" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="B11" s="9" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="15">
-      <c r="B11" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -208,15 +208,6 @@
   </si>
   <si>
     <t>Successfully Logged Out!</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basketball, </t>
-  </si>
-  <si>
-    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -289,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -313,261 +304,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="272" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -598,11 +337,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="272"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -611,7 +349,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="272"/>
+    <cellStyle name="Hyperlink" xfId="20"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -990,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0" topLeftCell="E1">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1322,50 +1060,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="14">
-        <v>38394</v>
-      </c>
-      <c r="H8" s="4">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8">
-        <v>123</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="mailto:sad@test.com"/>
@@ -1379,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A30" sqref="A30"/>
@@ -1657,6 +1351,314 @@
       </c>
       <c r="D19" s="12">
         <v>45788.670972222222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D20" s="12">
+        <v>45788.817129629628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45788.817326388889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D22" s="12">
+        <v>45788.825254629628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45788.826493055552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45788.830648148149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D25" s="12">
+        <v>45788.832361111112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D26" s="12">
+        <v>45788.832465277781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D27" s="12">
+        <v>45788.834189814814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D28" s="12">
+        <v>45788.834317129629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D29" s="12">
+        <v>45788.835694444446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="12">
+        <v>45788</v>
+      </c>
+      <c r="D30" s="12">
+        <v>45788.835740740738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D31" s="13">
+        <v>45788.837847222225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D32" s="13">
+        <v>45788.845532407409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D33" s="13">
+        <v>45788.845671296294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D34" s="13">
+        <v>45788.845752314817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D35" s="13">
+        <v>45788.8462037037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D36" s="13">
+        <v>45788.846273148149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D37" s="13">
+        <v>45788.846585648149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D38" s="13">
+        <v>45788.846666666665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D39" s="13">
+        <v>45788.846817129626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="13">
+        <v>45788</v>
+      </c>
+      <c r="D40" s="13">
+        <v>45788.86010416667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="14">
+        <v>45788</v>
+      </c>
+      <c r="D41" s="14">
+        <v>45788.978090277778</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -120,30 +120,30 @@
     <t>Profile</t>
   </si>
   <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
     <t>Spire.XLS for .NET</t>
   </si>
   <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
-  </si>
-  <si>
     <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 1.jpg</t>
   </si>
   <si>
@@ -208,6 +208,87 @@
   </si>
   <si>
     <t>Successfully Logged Out!</t>
+  </si>
+  <si>
+    <t>Added new user: spam</t>
+  </si>
+  <si>
+    <t>Added new user: asdfmdhgnfdvcs</t>
+  </si>
+  <si>
+    <t>kl.kl.kl.</t>
+  </si>
+  <si>
+    <t>Added new user: dk.kl.lk.kl.kl.</t>
+  </si>
+  <si>
+    <t>kgbvbxcv</t>
+  </si>
+  <si>
+    <t>Added new user: kgbvbxcv</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball, </t>
+  </si>
+  <si>
+    <t>asdasghjkl;</t>
+  </si>
+  <si>
+    <t>dvxzcgnbty dsdfr</t>
+  </si>
+  <si>
+    <t>vadfsgbvtrbrbdf</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
+    <t>asdsdgfvf vf</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>trbdfbtr</t>
+  </si>
+  <si>
+    <t>Added new user: asdasghjkl;</t>
+  </si>
+  <si>
+    <t>asdsgtrbtynbyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball, </t>
+  </si>
+  <si>
+    <t>tvafggegntfmdsdq</t>
+  </si>
+  <si>
+    <t>hdxfdsFGEHB</t>
+  </si>
+  <si>
+    <t>yjmio,oi,</t>
+  </si>
+  <si>
+    <t>sdcasdbwev hyt</t>
+  </si>
+  <si>
+    <t>SHVYDTBHNN SF</t>
+  </si>
+  <si>
+    <t>DFXCHYBRGB</t>
+  </si>
+  <si>
+    <t>Added new user: asdsgtrbtynbyd</t>
+  </si>
+  <si>
+    <t>Deleted an active student</t>
+  </si>
+  <si>
+    <t>Deleted an inactive user</t>
   </si>
 </sst>
 </file>
@@ -280,7 +361,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -304,9 +385,387 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="398" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -339,8 +798,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="398"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -349,7 +812,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="20"/>
+    <cellStyle name="Hyperlink" xfId="398"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -728,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="E1">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1060,6 +1523,138 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="17">
+        <v>34833</v>
+      </c>
+      <c r="H8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="17">
+        <v>34833</v>
+      </c>
+      <c r="H9" s="4">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="17">
+        <v>34833</v>
+      </c>
+      <c r="H10" s="4">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="mailto:sad@test.com"/>
@@ -1073,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A30" sqref="A30"/>
@@ -1659,6 +2254,501 @@
       </c>
       <c r="D41" s="14">
         <v>45788.978090277778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D42" s="14">
+        <v>45791.700601851851</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D43" s="14">
+        <v>45791.700995370367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D44" s="14">
+        <v>45791.701354166667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D45" s="14">
+        <v>45791.702268518522</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D46" s="14">
+        <v>45791.702569444446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D47" s="14">
+        <v>45791.702905092592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D48" s="14">
+        <v>45791.70385416667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D49" s="14">
+        <v>45791.704189814816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D50" s="14">
+        <v>45791.706782407404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D51" s="14">
+        <v>45791.707025462965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="14">
+        <v>45791</v>
+      </c>
+      <c r="D52" s="14">
+        <v>45791.708067129628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D53" s="15">
+        <v>45791.708877314813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D54" s="15">
+        <v>45791.70894675926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D55" s="15">
+        <v>45791.709340277775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D56" s="15">
+        <v>45791.7103125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D57" s="15">
+        <v>45791.711041666669</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15">
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D58" s="15">
+        <v>45791.712245370371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D59" s="15">
+        <v>45791.715173611112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D60" s="15">
+        <v>45791.716527777775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D61" s="15">
+        <v>45791.716840277775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D62" s="15">
+        <v>45791.729432870372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D63" s="15">
+        <v>45791.750185185185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D64" s="15">
+        <v>45791.750277777777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D65" s="15">
+        <v>45791.750358796293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D66" s="15">
+        <v>45791.750405092593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D67" s="15">
+        <v>45791.750879629632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
+      <c r="A68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D68" s="15">
+        <v>45791.7512037037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D69" s="15">
+        <v>45791.751423611109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D70" s="15">
+        <v>45791.752893518518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D71" s="15">
+        <v>45791.759664351855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D72" s="15">
+        <v>45791.759756944448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D73" s="15">
+        <v>45791.759791666664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D74" s="15">
+        <v>45791.769571759258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D75" s="15">
+        <v>45791.769953703704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D76" s="15">
+        <v>45791.770208333335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D77" s="15">
+        <v>45791.770868055559</v>
       </c>
     </row>
   </sheetData>
@@ -1678,42 +2768,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11505" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RECORDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -252,9 +252,6 @@
     <t>asdasdasd</t>
   </si>
   <si>
-    <t>trbdfbtr</t>
-  </si>
-  <si>
     <t>Added new user: asdasghjkl;</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>SHVYDTBHNN SF</t>
   </si>
   <si>
-    <t>DFXCHYBRGB</t>
-  </si>
-  <si>
     <t>Added new user: asdsgtrbtynbyd</t>
   </si>
   <si>
@@ -289,6 +283,51 @@
   </si>
   <si>
     <t>Deleted an inactive user</t>
+  </si>
+  <si>
+    <t>Marked 'asdsgtrbtynbyd' as Inactive.</t>
+  </si>
+  <si>
+    <t>Marked 'asdasghjkl;' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated a user: asdsgtrbtynbyd</t>
+  </si>
+  <si>
+    <t>Marked 'spam' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated a user: Dk</t>
+  </si>
+  <si>
+    <t>Reactivated a user: asdasghjkl;</t>
+  </si>
+  <si>
+    <t>Reactivated a user: spam</t>
+  </si>
+  <si>
+    <t>Set 'asdsgtrbtynbyd' as Inactive.</t>
+  </si>
+  <si>
+    <t>Set 'new' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated a user: was</t>
+  </si>
+  <si>
+    <t>Reactivated user 'asdsgtrbtynbyd'.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'asdasghjkl;'.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'spam'.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'new'.</t>
+  </si>
+  <si>
+    <t>Marked 'new' as Inactive.</t>
   </si>
 </sst>
 </file>
@@ -765,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,11 +838,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="398"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -1193,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="E1">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0" topLeftCell="H4">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1341,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15">
@@ -1520,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="N7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15">
@@ -1542,7 +1582,7 @@
       <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>34833</v>
       </c>
       <c r="H8" s="4">
@@ -1561,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
@@ -1586,7 +1626,7 @@
       <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>34833</v>
       </c>
       <c r="H9" s="4">
@@ -1605,7 +1645,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -1613,43 +1653,43 @@
     </row>
     <row r="10" spans="1:14" ht="15">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>34833</v>
       </c>
       <c r="H10" s="4">
         <v>30</v>
       </c>
       <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
         <v>82</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
@@ -1668,9 +1708,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A16">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -2476,7 +2516,7 @@
     </row>
     <row r="58" spans="2:4" ht="15">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="15">
         <v>45791</v>
@@ -2518,7 +2558,7 @@
         <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="15">
         <v>45791</v>
@@ -2672,7 +2712,7 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" s="15">
         <v>45791</v>
@@ -2686,7 +2726,7 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="15">
         <v>45791</v>
@@ -2714,7 +2754,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" s="15">
         <v>45791</v>
@@ -2728,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C76" s="15">
         <v>45791</v>
@@ -2749,6 +2789,1028 @@
       </c>
       <c r="D77" s="15">
         <v>45791.770868055559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D78" s="15">
+        <v>45791.849965277775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D79" s="15">
+        <v>45791.850057870368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D80" s="15">
+        <v>45791.855046296296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D81" s="15">
+        <v>45791.855196759258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D82" s="15">
+        <v>45791.855428240742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D83" s="15">
+        <v>45791.855497685188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D84" s="15">
+        <v>45791.856724537036</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D85" s="15">
+        <v>45791.856805555559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D86" s="15">
+        <v>45791.856909722221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D87" s="15">
+        <v>45791.856979166667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D88" s="15">
+        <v>45791.857222222221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D89" s="15">
+        <v>45791.85733796296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D90" s="15">
+        <v>45791.857997685183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D91" s="15">
+        <v>45791.864953703705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D92" s="15">
+        <v>45791.865069444444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D93" s="15">
+        <v>45791.866828703707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D94" s="15">
+        <v>45791.866909722223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D95" s="15">
+        <v>45791.868472222224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D96" s="15">
+        <v>45791.871689814812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
+      <c r="A97" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D97" s="15">
+        <v>45791.871828703705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
+      <c r="A98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D98" s="15">
+        <v>45791.87195601852</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D99" s="15">
+        <v>45791.872037037036</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D100" s="15">
+        <v>45791.872789351852</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D101" s="15">
+        <v>45791.872881944444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D102" s="15">
+        <v>45791.873252314814</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15">
+      <c r="A103" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D103" s="15">
+        <v>45791.873344907406</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15">
+      <c r="A104" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D104" s="15">
+        <v>45791.874189814815</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15">
+      <c r="A105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D105" s="15">
+        <v>45791.874259259261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15">
+      <c r="A106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D106" s="15">
+        <v>45791.878055555557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
+      <c r="A107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D107" s="15">
+        <v>45791.878171296295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15">
+      <c r="A108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D108" s="15">
+        <v>45791.892291666663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15">
+      <c r="A109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D109" s="15">
+        <v>45791.892372685186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15">
+      <c r="A110" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D110" s="15">
+        <v>45791.894780092596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15">
+      <c r="A111" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D111" s="15">
+        <v>45791.894861111112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15">
+      <c r="A112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D112" s="15">
+        <v>45791.894953703704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15">
+      <c r="A113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D113" s="15">
+        <v>45791.895798611113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15">
+      <c r="A114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D114" s="15">
+        <v>45791.895856481482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15">
+      <c r="A115" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D115" s="15">
+        <v>45791.895995370367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15">
+      <c r="A116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D116" s="15">
+        <v>45791.896041666667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15">
+      <c r="A117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D117" s="15">
+        <v>45791.89943287037</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
+      <c r="A118" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D118" s="15">
+        <v>45791.899513888886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15">
+      <c r="A119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D119" s="15">
+        <v>45791.913923611108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15">
+      <c r="A120" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D120" s="15">
+        <v>45791.914039351854</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15">
+      <c r="A121" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D121" s="15">
+        <v>45791.914189814815</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15">
+      <c r="A122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D122" s="15">
+        <v>45791.914918981478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15">
+      <c r="A123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D123" s="15">
+        <v>45791.915034722224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15">
+      <c r="A124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D124" s="15">
+        <v>45791.927916666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15">
+      <c r="A125" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D125" s="15">
+        <v>45791.928113425929</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15">
+      <c r="A126" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D126" s="15">
+        <v>45791.92827546296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15">
+      <c r="A127" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D127" s="15">
+        <v>45791.928344907406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15">
+      <c r="A128" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" s="15">
+        <v>45791</v>
+      </c>
+      <c r="D128" s="15">
+        <v>45791.92875</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15">
+      <c r="A129" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D129" s="17">
+        <v>45791.929907407408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15">
+      <c r="A130" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D130" s="17">
+        <v>45791.930069444446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15">
+      <c r="A131" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D131" s="17">
+        <v>45791.930069444446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15">
+      <c r="A132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D132" s="17">
+        <v>45791.930069444446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15">
+      <c r="A133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D133" s="17">
+        <v>45791.930069444446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15">
+      <c r="A134" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D134" s="17">
+        <v>45791.931192129632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15">
+      <c r="A135" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D135" s="17">
+        <v>45791.931319444448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15">
+      <c r="A136" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D136" s="17">
+        <v>45791.931319444448</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15">
+      <c r="A137" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D137" s="17">
+        <v>45791.931666666664</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15">
+      <c r="A138" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D138" s="17">
+        <v>45791.933518518519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15">
+      <c r="A139" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D139" s="17">
+        <v>45791.933611111112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15">
+      <c r="A140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D140" s="17">
+        <v>45791.936006944445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15">
+      <c r="A141" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D141" s="17">
+        <v>45791.93608796296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15">
+      <c r="A142" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>61</v>
+      </c>
+      <c r="C142" s="17">
+        <v>45791</v>
+      </c>
+      <c r="D142" s="17">
+        <v>45791.936203703706</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15">
+      <c r="A143" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D143" s="17">
+        <v>45792.126493055555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15">
+      <c r="A144" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D144" s="17">
+        <v>45792.126770833333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15">
+      <c r="A145" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" t="s">
+        <v>100</v>
+      </c>
+      <c r="C145" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D145" s="17">
+        <v>45792.126979166664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15">
+      <c r="A146" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D146" s="17">
+        <v>45792.127569444441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15">
+      <c r="A147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D147" s="17">
+        <v>45792.131018518521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15">
+      <c r="A148" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D148" s="17">
+        <v>45792.131157407406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15">
+      <c r="A149" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D149" s="17">
+        <v>45792.131284722222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15">
+      <c r="A150" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D150" s="17">
+        <v>45792.131284722222</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -400,7 +400,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="399">
+  <cellStyleXfs count="665">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -424,6 +424,272 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -821,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="398" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="664" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -843,7 +1109,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="398"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="664"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -852,7 +1118,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="398"/>
+    <cellStyle name="Hyperlink" xfId="664"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1604,7 +1870,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15">
@@ -1708,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A16">
       <selection activeCell="A30" sqref="A30"/>
@@ -3811,6 +4077,188 @@
       </c>
       <c r="D150" s="17">
         <v>45792.131284722222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15">
+      <c r="A151" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D151" s="17">
+        <v>45792.137465277781</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15">
+      <c r="A152" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D152" s="17">
+        <v>45792.13758101852</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15">
+      <c r="A153" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" t="s">
+        <v>88</v>
+      </c>
+      <c r="C153" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D153" s="17">
+        <v>45792.13758101852</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15">
+      <c r="A154" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D154" s="17">
+        <v>45792.137881944444</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15">
+      <c r="A155" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D155" s="17">
+        <v>45792.137881944444</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15">
+      <c r="A156" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" t="s">
+        <v>100</v>
+      </c>
+      <c r="C156" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D156" s="17">
+        <v>45792.137881944444</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15">
+      <c r="A157" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D157" s="17">
+        <v>45792.138009259259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15">
+      <c r="A158" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D158" s="17">
+        <v>45792.138877314814</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15">
+      <c r="A159" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D159" s="17">
+        <v>45792.138993055552</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15">
+      <c r="A160" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D160" s="17">
+        <v>45792.139155092591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15">
+      <c r="A161" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D161" s="17">
+        <v>45792.139155092591</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15">
+      <c r="A162" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D162" s="17">
+        <v>45792.139270833337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15">
+      <c r="A163" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D163" s="17">
+        <v>45792.139270833337</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -150,7 +150,7 @@
     <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Volleyball, Soccer, </t>
+    <t>Volleyball, Soccer</t>
   </si>
   <si>
     <t>asd</t>
@@ -162,9 +162,6 @@
     <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 5.jpg</t>
   </si>
   <si>
-    <t>stud</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -231,51 +228,9 @@
     <t>spam</t>
   </si>
   <si>
-    <t xml:space="preserve">Volleyball, </t>
-  </si>
-  <si>
-    <t>asdasghjkl;</t>
-  </si>
-  <si>
-    <t>dvxzcgnbty dsdfr</t>
-  </si>
-  <si>
-    <t>vadfsgbvtrbrbdf</t>
-  </si>
-  <si>
-    <t>dasdasd</t>
-  </si>
-  <si>
-    <t>asdsdgfvf vf</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
     <t>Added new user: asdasghjkl;</t>
   </si>
   <si>
-    <t>asdsgtrbtynbyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basketball, </t>
-  </si>
-  <si>
-    <t>tvafggegntfmdsdq</t>
-  </si>
-  <si>
-    <t>hdxfdsFGEHB</t>
-  </si>
-  <si>
-    <t>yjmio,oi,</t>
-  </si>
-  <si>
-    <t>sdcasdbwev hyt</t>
-  </si>
-  <si>
-    <t>SHVYDTBHNN SF</t>
-  </si>
-  <si>
     <t>Added new user: asdsgtrbtynbyd</t>
   </si>
   <si>
@@ -328,6 +283,69 @@
   </si>
   <si>
     <t>Marked 'new' as Inactive.</t>
+  </si>
+  <si>
+    <t>defaultUserName</t>
+  </si>
+  <si>
+    <t>Added new user: xad</t>
+  </si>
+  <si>
+    <t>Reactivated user 'xad'.</t>
+  </si>
+  <si>
+    <t>Marked 'xad' as Inactive.</t>
+  </si>
+  <si>
+    <t>Added new user: asdshgtrb</t>
+  </si>
+  <si>
+    <t>Marked 'asdshgtrb' as Inactive.</t>
+  </si>
+  <si>
+    <t>Added new user: asdasfgregbt</t>
+  </si>
+  <si>
+    <t>Marked 'asdasfgregbt' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'asdasfgregbt'.</t>
+  </si>
+  <si>
+    <t>Added new user: jk</t>
+  </si>
+  <si>
+    <t>Added new user: def</t>
+  </si>
+  <si>
+    <t>Marked 'was' as Inactive.</t>
+  </si>
+  <si>
+    <t>Marked 'stud' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'stud'.</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>updates</t>
+  </si>
+  <si>
+    <t>Updated user: updatess</t>
+  </si>
+  <si>
+    <t>Updated user: updates</t>
+  </si>
+  <si>
+    <t>ramon</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="665">
+  <cellStyleXfs count="679">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -424,6 +442,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1087,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="664" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="678" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1105,11 +1137,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="664"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="678"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -1118,7 +1148,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="664"/>
+    <cellStyle name="Hyperlink" xfId="678"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1497,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="H4">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0" topLeftCell="H1">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1655,7 +1685,7 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1679,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
@@ -1699,22 +1729,22 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10">
         <v>43960</v>
@@ -1723,16 +1753,16 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
@@ -1743,22 +1773,22 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="10">
         <v>38177</v>
@@ -1767,42 +1797,42 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="11">
         <v>42135</v>
@@ -1811,13 +1841,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>44</v>
@@ -1827,138 +1857,6 @@
       </c>
       <c r="N7" s="4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="16">
-        <v>34833</v>
-      </c>
-      <c r="H8" s="4">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="16">
-        <v>34833</v>
-      </c>
-      <c r="H9" s="4">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="16">
-        <v>34833</v>
-      </c>
-      <c r="H10" s="4">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A16">
       <selection activeCell="A30" sqref="A30"/>
@@ -1990,16 +1888,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2007,7 +1905,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="12">
         <v>45788</v>
@@ -2021,7 +1919,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="12">
         <v>45788</v>
@@ -2035,7 +1933,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="12">
         <v>45788</v>
@@ -2049,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="12">
         <v>45788</v>
@@ -2063,7 +1961,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="12">
         <v>45788</v>
@@ -2077,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12">
         <v>45788</v>
@@ -2091,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12">
         <v>45788</v>
@@ -2105,7 +2003,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="12">
         <v>45788</v>
@@ -2119,7 +2017,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12">
         <v>45788</v>
@@ -2133,7 +2031,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="12">
         <v>45788</v>
@@ -2147,7 +2045,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="12">
         <v>45788</v>
@@ -2161,7 +2059,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="12">
         <v>45788</v>
@@ -2175,7 +2073,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12">
         <v>45788</v>
@@ -2189,7 +2087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12">
         <v>45788</v>
@@ -2203,7 +2101,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12">
         <v>45788</v>
@@ -2217,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="12">
         <v>45788</v>
@@ -2231,7 +2129,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12">
         <v>45788</v>
@@ -2245,7 +2143,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="12">
         <v>45788</v>
@@ -2256,10 +2154,10 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="12">
         <v>45788</v>
@@ -2270,10 +2168,10 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="12">
         <v>45788</v>
@@ -2287,7 +2185,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="12">
         <v>45788</v>
@@ -2301,7 +2199,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="12">
         <v>45788</v>
@@ -2315,7 +2213,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="12">
         <v>45788</v>
@@ -2329,7 +2227,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="12">
         <v>45788</v>
@@ -2343,7 +2241,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="12">
         <v>45788</v>
@@ -2357,7 +2255,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="12">
         <v>45788</v>
@@ -2371,7 +2269,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="12">
         <v>45788</v>
@@ -2385,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="12">
         <v>45788</v>
@@ -2399,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="12">
         <v>45788</v>
@@ -2413,7 +2311,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="13">
         <v>45788</v>
@@ -2427,7 +2325,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="13">
         <v>45788</v>
@@ -2441,7 +2339,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="13">
         <v>45788</v>
@@ -2455,7 +2353,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="13">
         <v>45788</v>
@@ -2469,7 +2367,7 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="13">
         <v>45788</v>
@@ -2483,7 +2381,7 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="13">
         <v>45788</v>
@@ -2497,7 +2395,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="13">
         <v>45788</v>
@@ -2511,7 +2409,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="13">
         <v>45788</v>
@@ -2525,7 +2423,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="13">
         <v>45788</v>
@@ -2539,7 +2437,7 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="13">
         <v>45788</v>
@@ -2553,7 +2451,7 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="14">
         <v>45788</v>
@@ -2567,7 +2465,7 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="14">
         <v>45791</v>
@@ -2578,7 +2476,7 @@
     </row>
     <row r="43" spans="2:4" ht="15">
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="14">
         <v>45791</v>
@@ -2592,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="14">
         <v>45791</v>
@@ -2606,7 +2504,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="14">
         <v>45791</v>
@@ -2617,7 +2515,7 @@
     </row>
     <row r="46" spans="2:4" ht="15">
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="14">
         <v>45791</v>
@@ -2631,7 +2529,7 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="14">
         <v>45791</v>
@@ -2645,7 +2543,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="14">
         <v>45791</v>
@@ -2656,10 +2554,10 @@
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
         <v>64</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
       </c>
       <c r="C49" s="14">
         <v>45791</v>
@@ -2673,7 +2571,7 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="14">
         <v>45791</v>
@@ -2684,10 +2582,10 @@
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
         <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
       </c>
       <c r="C51" s="14">
         <v>45791</v>
@@ -2701,7 +2599,7 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="14">
         <v>45791</v>
@@ -2715,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="15">
         <v>45791</v>
@@ -2729,7 +2627,7 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="15">
         <v>45791</v>
@@ -2740,10 +2638,10 @@
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15">
         <v>45791</v>
@@ -2757,7 +2655,7 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="15">
         <v>45791</v>
@@ -2771,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="15">
         <v>45791</v>
@@ -2782,7 +2680,7 @@
     </row>
     <row r="58" spans="2:4" ht="15">
       <c r="B58" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C58" s="15">
         <v>45791</v>
@@ -2796,7 +2694,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="15">
         <v>45791</v>
@@ -2810,7 +2708,7 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="15">
         <v>45791</v>
@@ -2824,7 +2722,7 @@
         <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C61" s="15">
         <v>45791</v>
@@ -2838,7 +2736,7 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="15">
         <v>45791</v>
@@ -2852,7 +2750,7 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="15">
         <v>45791</v>
@@ -2866,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="15">
         <v>45791</v>
@@ -2880,7 +2778,7 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="15">
         <v>45791</v>
@@ -2894,7 +2792,7 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="15">
         <v>45791</v>
@@ -2908,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="15">
         <v>45791</v>
@@ -2922,7 +2820,7 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="15">
         <v>45791</v>
@@ -2936,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="15">
         <v>45791</v>
@@ -2950,7 +2848,7 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="15">
         <v>45791</v>
@@ -2964,7 +2862,7 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="15">
         <v>45791</v>
@@ -2978,7 +2876,7 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C72" s="15">
         <v>45791</v>
@@ -2992,7 +2890,7 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C73" s="15">
         <v>45791</v>
@@ -3006,7 +2904,7 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="15">
         <v>45791</v>
@@ -3020,7 +2918,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C75" s="15">
         <v>45791</v>
@@ -3034,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C76" s="15">
         <v>45791</v>
@@ -3048,7 +2946,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="15">
         <v>45791</v>
@@ -3062,7 +2960,7 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C78" s="15">
         <v>45791</v>
@@ -3076,7 +2974,7 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C79" s="15">
         <v>45791</v>
@@ -3090,7 +2988,7 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C80" s="15">
         <v>45791</v>
@@ -3104,7 +3002,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C81" s="15">
         <v>45791</v>
@@ -3118,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C82" s="15">
         <v>45791</v>
@@ -3132,7 +3030,7 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="15">
         <v>45791</v>
@@ -3146,7 +3044,7 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="15">
         <v>45791</v>
@@ -3160,7 +3058,7 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C85" s="15">
         <v>45791</v>
@@ -3174,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C86" s="15">
         <v>45791</v>
@@ -3188,7 +3086,7 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C87" s="15">
         <v>45791</v>
@@ -3202,7 +3100,7 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C88" s="15">
         <v>45791</v>
@@ -3216,7 +3114,7 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C89" s="15">
         <v>45791</v>
@@ -3230,7 +3128,7 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="15">
         <v>45791</v>
@@ -3244,7 +3142,7 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" s="15">
         <v>45791</v>
@@ -3258,7 +3156,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C92" s="15">
         <v>45791</v>
@@ -3272,7 +3170,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C93" s="15">
         <v>45791</v>
@@ -3286,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C94" s="15">
         <v>45791</v>
@@ -3300,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="15">
         <v>45791</v>
@@ -3314,7 +3212,7 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" s="15">
         <v>45791</v>
@@ -3328,7 +3226,7 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C97" s="15">
         <v>45791</v>
@@ -3342,7 +3240,7 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C98" s="15">
         <v>45791</v>
@@ -3356,7 +3254,7 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" s="15">
         <v>45791</v>
@@ -3370,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C100" s="15">
         <v>45791</v>
@@ -3384,7 +3282,7 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C101" s="15">
         <v>45791</v>
@@ -3398,7 +3296,7 @@
         <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="15">
         <v>45791</v>
@@ -3412,7 +3310,7 @@
         <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C103" s="15">
         <v>45791</v>
@@ -3426,7 +3324,7 @@
         <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C104" s="15">
         <v>45791</v>
@@ -3440,7 +3338,7 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C105" s="15">
         <v>45791</v>
@@ -3454,7 +3352,7 @@
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C106" s="15">
         <v>45791</v>
@@ -3468,7 +3366,7 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C107" s="15">
         <v>45791</v>
@@ -3482,7 +3380,7 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C108" s="15">
         <v>45791</v>
@@ -3496,7 +3394,7 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C109" s="15">
         <v>45791</v>
@@ -3510,7 +3408,7 @@
         <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C110" s="15">
         <v>45791</v>
@@ -3524,7 +3422,7 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C111" s="15">
         <v>45791</v>
@@ -3538,7 +3436,7 @@
         <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C112" s="15">
         <v>45791</v>
@@ -3552,7 +3450,7 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C113" s="15">
         <v>45791</v>
@@ -3566,7 +3464,7 @@
         <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C114" s="15">
         <v>45791</v>
@@ -3580,7 +3478,7 @@
         <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C115" s="15">
         <v>45791</v>
@@ -3594,7 +3492,7 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C116" s="15">
         <v>45791</v>
@@ -3608,7 +3506,7 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C117" s="15">
         <v>45791</v>
@@ -3622,7 +3520,7 @@
         <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C118" s="15">
         <v>45791</v>
@@ -3636,7 +3534,7 @@
         <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C119" s="15">
         <v>45791</v>
@@ -3650,7 +3548,7 @@
         <v>27</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C120" s="15">
         <v>45791</v>
@@ -3664,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C121" s="15">
         <v>45791</v>
@@ -3678,7 +3576,7 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C122" s="15">
         <v>45791</v>
@@ -3692,7 +3590,7 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C123" s="15">
         <v>45791</v>
@@ -3706,7 +3604,7 @@
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C124" s="15">
         <v>45791</v>
@@ -3720,7 +3618,7 @@
         <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C125" s="15">
         <v>45791</v>
@@ -3734,7 +3632,7 @@
         <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C126" s="15">
         <v>45791</v>
@@ -3748,7 +3646,7 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C127" s="15">
         <v>45791</v>
@@ -3762,7 +3660,7 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C128" s="15">
         <v>45791</v>
@@ -3776,12 +3674,12 @@
         <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D129" s="17">
+        <v>59</v>
+      </c>
+      <c r="C129" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D129" s="16">
         <v>45791.929907407408</v>
       </c>
     </row>
@@ -3790,12 +3688,12 @@
         <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D130" s="17">
+        <v>82</v>
+      </c>
+      <c r="C130" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D130" s="16">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3804,12 +3702,12 @@
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D131" s="17">
+        <v>83</v>
+      </c>
+      <c r="C131" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D131" s="16">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3818,12 +3716,12 @@
         <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D132" s="17">
+        <v>84</v>
+      </c>
+      <c r="C132" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D132" s="16">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3832,12 +3730,12 @@
         <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D133" s="17">
+        <v>85</v>
+      </c>
+      <c r="C133" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D133" s="16">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3846,12 +3744,12 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D134" s="17">
+        <v>59</v>
+      </c>
+      <c r="C134" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D134" s="16">
         <v>45791.931192129632</v>
       </c>
     </row>
@@ -3860,12 +3758,12 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
-      </c>
-      <c r="C135" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D135" s="17">
+        <v>72</v>
+      </c>
+      <c r="C135" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D135" s="16">
         <v>45791.931319444448</v>
       </c>
     </row>
@@ -3874,12 +3772,12 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D136" s="17">
+        <v>73</v>
+      </c>
+      <c r="C136" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D136" s="16">
         <v>45791.931319444448</v>
       </c>
     </row>
@@ -3888,12 +3786,12 @@
         <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>61</v>
-      </c>
-      <c r="C137" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D137" s="17">
+        <v>60</v>
+      </c>
+      <c r="C137" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D137" s="16">
         <v>45791.931666666664</v>
       </c>
     </row>
@@ -3902,12 +3800,12 @@
         <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D138" s="17">
+        <v>60</v>
+      </c>
+      <c r="C138" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D138" s="16">
         <v>45791.933518518519</v>
       </c>
     </row>
@@ -3916,12 +3814,12 @@
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>60</v>
-      </c>
-      <c r="C139" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D139" s="17">
+        <v>59</v>
+      </c>
+      <c r="C139" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D139" s="16">
         <v>45791.933611111112</v>
       </c>
     </row>
@@ -3930,12 +3828,12 @@
         <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D140" s="17">
+        <v>60</v>
+      </c>
+      <c r="C140" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D140" s="16">
         <v>45791.936006944445</v>
       </c>
     </row>
@@ -3944,12 +3842,12 @@
         <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>60</v>
-      </c>
-      <c r="C141" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D141" s="17">
+        <v>59</v>
+      </c>
+      <c r="C141" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D141" s="16">
         <v>45791.93608796296</v>
       </c>
     </row>
@@ -3958,12 +3856,12 @@
         <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>61</v>
-      </c>
-      <c r="C142" s="17">
-        <v>45791</v>
-      </c>
-      <c r="D142" s="17">
+        <v>60</v>
+      </c>
+      <c r="C142" s="16">
+        <v>45791</v>
+      </c>
+      <c r="D142" s="16">
         <v>45791.936203703706</v>
       </c>
     </row>
@@ -3972,12 +3870,12 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
-      </c>
-      <c r="C143" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D143" s="17">
+        <v>59</v>
+      </c>
+      <c r="C143" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D143" s="16">
         <v>45792.126493055555</v>
       </c>
     </row>
@@ -3986,12 +3884,12 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
-      </c>
-      <c r="C144" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D144" s="17">
+        <v>84</v>
+      </c>
+      <c r="C144" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D144" s="16">
         <v>45792.126770833333</v>
       </c>
     </row>
@@ -4000,12 +3898,12 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
-      </c>
-      <c r="C145" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D145" s="17">
+        <v>85</v>
+      </c>
+      <c r="C145" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D145" s="16">
         <v>45792.126979166664</v>
       </c>
     </row>
@@ -4014,12 +3912,12 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D146" s="17">
+        <v>59</v>
+      </c>
+      <c r="C146" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D146" s="16">
         <v>45792.127569444441</v>
       </c>
     </row>
@@ -4028,12 +3926,12 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
-      </c>
-      <c r="C147" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D147" s="17">
+        <v>59</v>
+      </c>
+      <c r="C147" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D147" s="16">
         <v>45792.131018518521</v>
       </c>
     </row>
@@ -4042,12 +3940,12 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>101</v>
-      </c>
-      <c r="C148" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D148" s="17">
+        <v>86</v>
+      </c>
+      <c r="C148" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D148" s="16">
         <v>45792.131157407406</v>
       </c>
     </row>
@@ -4056,12 +3954,12 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
-      </c>
-      <c r="C149" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D149" s="17">
+        <v>82</v>
+      </c>
+      <c r="C149" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D149" s="16">
         <v>45792.131284722222</v>
       </c>
     </row>
@@ -4070,12 +3968,12 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
-      </c>
-      <c r="C150" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D150" s="17">
+        <v>83</v>
+      </c>
+      <c r="C150" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D150" s="16">
         <v>45792.131284722222</v>
       </c>
     </row>
@@ -4084,12 +3982,12 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
-      </c>
-      <c r="C151" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D151" s="17">
+        <v>59</v>
+      </c>
+      <c r="C151" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D151" s="16">
         <v>45792.137465277781</v>
       </c>
     </row>
@@ -4098,12 +3996,12 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
-      </c>
-      <c r="C152" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D152" s="17">
+        <v>72</v>
+      </c>
+      <c r="C152" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D152" s="16">
         <v>45792.13758101852</v>
       </c>
     </row>
@@ -4112,12 +4010,12 @@
         <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
-      </c>
-      <c r="C153" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D153" s="17">
+        <v>73</v>
+      </c>
+      <c r="C153" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D153" s="16">
         <v>45792.13758101852</v>
       </c>
     </row>
@@ -4126,12 +4024,12 @@
         <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
-      </c>
-      <c r="C154" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D154" s="17">
+        <v>82</v>
+      </c>
+      <c r="C154" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D154" s="16">
         <v>45792.137881944444</v>
       </c>
     </row>
@@ -4140,12 +4038,12 @@
         <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
-      </c>
-      <c r="C155" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D155" s="17">
+        <v>83</v>
+      </c>
+      <c r="C155" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D155" s="16">
         <v>45792.137881944444</v>
       </c>
     </row>
@@ -4154,12 +4052,12 @@
         <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>100</v>
-      </c>
-      <c r="C156" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D156" s="17">
+        <v>85</v>
+      </c>
+      <c r="C156" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D156" s="16">
         <v>45792.137881944444</v>
       </c>
     </row>
@@ -4168,12 +4066,12 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C157" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D157" s="17">
+        <v>72</v>
+      </c>
+      <c r="C157" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D157" s="16">
         <v>45792.138009259259</v>
       </c>
     </row>
@@ -4182,12 +4080,12 @@
         <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
-      </c>
-      <c r="C158" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D158" s="17">
+        <v>59</v>
+      </c>
+      <c r="C158" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D158" s="16">
         <v>45792.138877314814</v>
       </c>
     </row>
@@ -4196,12 +4094,12 @@
         <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
-      </c>
-      <c r="C159" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D159" s="17">
+        <v>73</v>
+      </c>
+      <c r="C159" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D159" s="16">
         <v>45792.138993055552</v>
       </c>
     </row>
@@ -4210,12 +4108,12 @@
         <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>90</v>
-      </c>
-      <c r="C160" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D160" s="17">
+        <v>75</v>
+      </c>
+      <c r="C160" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D160" s="16">
         <v>45792.139155092591</v>
       </c>
     </row>
@@ -4224,12 +4122,12 @@
         <v>27</v>
       </c>
       <c r="B161" t="s">
-        <v>101</v>
-      </c>
-      <c r="C161" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D161" s="17">
+        <v>86</v>
+      </c>
+      <c r="C161" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D161" s="16">
         <v>45792.139155092591</v>
       </c>
     </row>
@@ -4238,12 +4136,12 @@
         <v>27</v>
       </c>
       <c r="B162" t="s">
-        <v>97</v>
-      </c>
-      <c r="C162" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D162" s="17">
+        <v>82</v>
+      </c>
+      <c r="C162" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D162" s="16">
         <v>45792.139270833337</v>
       </c>
     </row>
@@ -4252,13 +4150,951 @@
         <v>27</v>
       </c>
       <c r="B163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D163" s="16">
+        <v>45792.139270833337</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15">
+      <c r="A164" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D164" s="16">
+        <v>45792.141886574071</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15">
+      <c r="A165" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D165" s="16">
+        <v>45792.141967592594</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15">
+      <c r="A166" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D166" s="16">
+        <v>45792.142430555556</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15">
+      <c r="A167" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D167" s="16">
+        <v>45792.142777777779</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15">
+      <c r="A168" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D168" s="16">
+        <v>45792.142881944441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15">
+      <c r="A169" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" t="s">
+        <v>89</v>
+      </c>
+      <c r="C169" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D169" s="16">
+        <v>45792.143020833333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15">
+      <c r="A170" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D170" s="16">
+        <v>45792.1434375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15">
+      <c r="A171" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D171" s="16">
+        <v>45792.143831018519</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15">
+      <c r="A172" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D172" s="16">
+        <v>45792.144097222219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15">
+      <c r="A173" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D173" s="16">
+        <v>45792.144363425927</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15">
+      <c r="A174" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D174" s="16">
+        <v>45792.144409722219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15">
+      <c r="A175" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>60</v>
+      </c>
+      <c r="C175" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D175" s="16">
+        <v>45792.144467592596</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15">
+      <c r="A176" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D176" s="16">
+        <v>45792.144780092596</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15">
+      <c r="A177" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" t="s">
+        <v>92</v>
+      </c>
+      <c r="C177" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D177" s="16">
+        <v>45792.144907407404</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15">
+      <c r="A178" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D178" s="16">
+        <v>45792.144907407404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15">
+      <c r="A179" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D179" s="16">
+        <v>45792.145219907405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15">
+      <c r="A180" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D180" s="16">
+        <v>45792.145694444444</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15">
+      <c r="A181" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s">
+        <v>72</v>
+      </c>
+      <c r="C181" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D181" s="16">
+        <v>45792.145787037036</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15">
+      <c r="A182" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B182" t="s">
+        <v>93</v>
+      </c>
+      <c r="C182" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D182" s="16">
+        <v>45792.14634259259</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15">
+      <c r="A183" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" t="s">
+        <v>60</v>
+      </c>
+      <c r="C183" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D183" s="16">
+        <v>45792.146863425929</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15">
+      <c r="A184" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D184" s="16">
+        <v>45792.1484375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15">
+      <c r="A185" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>94</v>
+      </c>
+      <c r="C185" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D185" s="16">
+        <v>45792.148599537039</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15">
+      <c r="A186" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" t="s">
+        <v>95</v>
+      </c>
+      <c r="C186" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D186" s="16">
+        <v>45792.148680555554</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15">
+      <c r="A187" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" t="s">
+        <v>96</v>
+      </c>
+      <c r="C187" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D187" s="16">
+        <v>45792.149004629631</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15">
+      <c r="A188" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" t="s">
+        <v>60</v>
+      </c>
+      <c r="C188" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D188" s="16">
+        <v>45792.149375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15">
+      <c r="A189" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D189" s="16">
+        <v>45792.149502314816</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15">
+      <c r="A190" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D190" s="16">
+        <v>45792.149814814817</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15">
+      <c r="A191" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" t="s">
+        <v>60</v>
+      </c>
+      <c r="C191" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D191" s="16">
+        <v>45792.151712962965</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15">
+      <c r="A192" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D192" s="16">
+        <v>45792.15179398148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15">
+      <c r="A193" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" t="s">
+        <v>60</v>
+      </c>
+      <c r="C193" s="16">
+        <v>45792</v>
+      </c>
+      <c r="D193" s="16">
+        <v>45792.15185185185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15">
+      <c r="A194" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" t="s">
+        <v>59</v>
+      </c>
+      <c r="C194" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D194" s="17">
+        <v>45792.152418981481</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15">
+      <c r="A195" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" t="s">
         <v>98</v>
       </c>
-      <c r="C163" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D163" s="17">
-        <v>45792.139270833337</v>
+      <c r="C195" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D195" s="17">
+        <v>45792.153761574074</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15">
+      <c r="A196" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D196" s="17">
+        <v>45792.154027777775</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15">
+      <c r="A197" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D197" s="17">
+        <v>45792.1575</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15">
+      <c r="A198" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B198" t="s">
+        <v>99</v>
+      </c>
+      <c r="C198" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D198" s="17">
+        <v>45792.157604166663</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15">
+      <c r="A199" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" t="s">
+        <v>60</v>
+      </c>
+      <c r="C199" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D199" s="17">
+        <v>45792.15797453704</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15">
+      <c r="A200" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D200" s="17">
+        <v>45792.158043981479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15">
+      <c r="A201" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D201" s="17">
+        <v>45792.158125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15">
+      <c r="A202" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B202" t="s">
+        <v>60</v>
+      </c>
+      <c r="C202" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D202" s="17">
+        <v>45792.158182870371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15">
+      <c r="A203" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D203" s="17">
+        <v>45792.1584375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15">
+      <c r="A204" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" t="s">
+        <v>86</v>
+      </c>
+      <c r="C204" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D204" s="17">
+        <v>45792.158541666664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15">
+      <c r="A205" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>100</v>
+      </c>
+      <c r="C205" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D205" s="17">
+        <v>45792.158645833333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15">
+      <c r="A206" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" t="s">
+        <v>60</v>
+      </c>
+      <c r="C206" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D206" s="17">
+        <v>45792.158715277779</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15">
+      <c r="A207" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D207" s="17">
+        <v>45792.162210648145</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15">
+      <c r="A208" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B208" t="s">
+        <v>60</v>
+      </c>
+      <c r="C208" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D208" s="17">
+        <v>45792.162847222222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15">
+      <c r="A209" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" t="s">
+        <v>59</v>
+      </c>
+      <c r="C209" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D209" s="17">
+        <v>45792.164918981478</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15">
+      <c r="A210" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" t="s">
+        <v>60</v>
+      </c>
+      <c r="C210" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D210" s="17">
+        <v>45792.165347222224</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15">
+      <c r="A211" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B211" t="s">
+        <v>59</v>
+      </c>
+      <c r="C211" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D211" s="17">
+        <v>45792.165520833332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15">
+      <c r="A212" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B212" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D212" s="17">
+        <v>45792.165879629632</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15">
+      <c r="A213" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B213" t="s">
+        <v>59</v>
+      </c>
+      <c r="C213" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D213" s="17">
+        <v>45792.1662037037</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15">
+      <c r="A214" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" t="s">
+        <v>60</v>
+      </c>
+      <c r="C214" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D214" s="17">
+        <v>45792.166608796295</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15">
+      <c r="A215" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215" t="s">
+        <v>59</v>
+      </c>
+      <c r="C215" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D215" s="17">
+        <v>45792.166712962964</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15">
+      <c r="A216" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216" t="s">
+        <v>60</v>
+      </c>
+      <c r="C216" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D216" s="17">
+        <v>45792.170891203707</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15">
+      <c r="A217" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217" t="s">
+        <v>59</v>
+      </c>
+      <c r="C217" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D217" s="17">
+        <v>45792.170960648145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15">
+      <c r="A218" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" t="s">
+        <v>60</v>
+      </c>
+      <c r="C218" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D218" s="17">
+        <v>45792.172303240739</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15">
+      <c r="A219" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219" t="s">
+        <v>59</v>
+      </c>
+      <c r="C219" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D219" s="17">
+        <v>45792.172395833331</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15">
+      <c r="A220" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220" t="s">
+        <v>60</v>
+      </c>
+      <c r="C220" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D220" s="17">
+        <v>45792.174340277779</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15">
+      <c r="A221" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B221" t="s">
+        <v>59</v>
+      </c>
+      <c r="C221" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D221" s="17">
+        <v>45792.174467592595</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15">
+      <c r="A222" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D222" s="17">
+        <v>45792.175219907411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15">
+      <c r="A223" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223" t="s">
+        <v>59</v>
+      </c>
+      <c r="C223" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D223" s="17">
+        <v>45792.175358796296</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15">
+      <c r="A224" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224" t="s">
+        <v>60</v>
+      </c>
+      <c r="C224" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D224" s="17">
+        <v>45792.177453703705</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15">
+      <c r="A225" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" t="s">
+        <v>59</v>
+      </c>
+      <c r="C225" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D225" s="17">
+        <v>45792.177511574075</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15">
+      <c r="A226" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B226" t="s">
+        <v>104</v>
+      </c>
+      <c r="C226" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D226" s="17">
+        <v>45792.177974537037</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15">
+      <c r="A227" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227" t="s">
+        <v>60</v>
+      </c>
+      <c r="C227" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D227" s="17">
+        <v>45792.1784837963</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15">
+      <c r="A228" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" t="s">
+        <v>59</v>
+      </c>
+      <c r="C228" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D228" s="17">
+        <v>45792.178564814814</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15">
+      <c r="A229" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B229" t="s">
+        <v>105</v>
+      </c>
+      <c r="C229" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D229" s="17">
+        <v>45792.1787962963</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15">
+      <c r="A230" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" t="s">
+        <v>59</v>
+      </c>
+      <c r="C230" s="17">
+        <v>45792</v>
+      </c>
+      <c r="D230" s="17">
+        <v>45792.180567129632</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11505" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RECORDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -120,36 +120,30 @@
     <t>Profile</t>
   </si>
   <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
     <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
   </si>
   <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
-    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 1.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 2.jpg</t>
-  </si>
-  <si>
     <t>Volleyball, Soccer</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>BSCpE</t>
   </si>
   <si>
-    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 5.jpg</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -180,12 +171,6 @@
     <t>was</t>
   </si>
   <si>
-    <t xml:space="preserve">Basketball, Volleyball, Soccer, </t>
-  </si>
-  <si>
-    <t>C:\Users\GUSTAV\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 3.jpg</t>
-  </si>
-  <si>
     <t>INFORMATION</t>
   </si>
   <si>
@@ -330,7 +315,7 @@
     <t>Soccer</t>
   </si>
   <si>
-    <t>updated</t>
+    <t>updatedsss</t>
   </si>
   <si>
     <t>updates</t>
@@ -346,6 +331,96 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 5.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\EVEDRI_Lab_Act2\EVEDRI_Lab_Act2\Pictures\Avatar 2.jpg</t>
+  </si>
+  <si>
+    <t>gjruivbjrtgvb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball, </t>
+  </si>
+  <si>
+    <t>rtbtyb</t>
+  </si>
+  <si>
+    <t>fgbgbtb</t>
+  </si>
+  <si>
+    <t>asdrenyt</t>
+  </si>
+  <si>
+    <t>yhmnuyny</t>
+  </si>
+  <si>
+    <t>verececew</t>
+  </si>
+  <si>
+    <t>ergerververv</t>
+  </si>
+  <si>
+    <t>Added new user: gjruivbjrtgvb</t>
+  </si>
+  <si>
+    <t>updatessss</t>
+  </si>
+  <si>
+    <t>Updated user: updatessss</t>
+  </si>
+  <si>
+    <t>updaters</t>
+  </si>
+  <si>
+    <t>Updated user: updaters</t>
+  </si>
+  <si>
+    <t>Marked 'gjruivbjrtgvb' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'gjruivbjrtgvb'.</t>
+  </si>
+  <si>
+    <t>upd</t>
+  </si>
+  <si>
+    <t>uasdsadasd</t>
+  </si>
+  <si>
+    <t>Updated user: upd</t>
+  </si>
+  <si>
+    <t>Marked 'upd' as Inactive.</t>
+  </si>
+  <si>
+    <t>Reactivated user 'upd'.</t>
+  </si>
+  <si>
+    <t>asdsdgrv</t>
+  </si>
+  <si>
+    <t>trvbtrv</t>
+  </si>
+  <si>
+    <t>asd sgfw</t>
+  </si>
+  <si>
+    <t>asddgrfv</t>
+  </si>
+  <si>
+    <t>vev</t>
+  </si>
+  <si>
+    <t>dasasdasd</t>
+  </si>
+  <si>
+    <t>Added new user: asdsdgrv</t>
   </si>
 </sst>
 </file>
@@ -418,7 +493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="679">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -834,275 +909,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="678" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="412" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1127,19 +936,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="412"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="678"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -1148,7 +950,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="678"/>
+    <cellStyle name="Hyperlink" xfId="412"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1527,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32F544-3CFA-40B4-90DD-B147A743AC79}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="H1">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1547,7 +1349,7 @@
     <col min="10" max="10" width="19.28125" style="0" customWidth="1"/>
     <col min="11" max="11" width="35.28125" style="0" customWidth="1"/>
     <col min="12" max="12" width="15.00390625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="82.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="88.00390625" style="0" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.8515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1633,7 +1435,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="N2" s="4">
         <v>1</v>
@@ -1677,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N3" s="4">
         <v>1</v>
@@ -1685,43 +1487,43 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="10">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7">
         <v>38182</v>
       </c>
       <c r="H4" s="4">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -1729,43 +1531,43 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="10">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7">
         <v>43960</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
@@ -1773,90 +1575,178 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="10">
-        <v>38177</v>
+        <v>109</v>
+      </c>
+      <c r="G6" s="7">
+        <v>38367</v>
       </c>
       <c r="H6" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7">
         <v>42135</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="13">
+        <v>38367</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="13">
+        <v>37636</v>
+      </c>
+      <c r="H9" s="4">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE2ECA-D8E0-46A9-8305-09FFCE3338AA}">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A16">
       <selection activeCell="A30" sqref="A30"/>
@@ -1888,16 +1778,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1905,12 +1795,12 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="12">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10">
         <v>45788</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>45788.615266203706</v>
       </c>
     </row>
@@ -1919,12 +1809,12 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="12">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10">
         <v>45788</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>45788.618900462963</v>
       </c>
     </row>
@@ -1933,12 +1823,12 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="12">
+        <v>55</v>
+      </c>
+      <c r="C4" s="10">
         <v>45788</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>45788.619479166664</v>
       </c>
     </row>
@@ -1947,12 +1837,12 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="12">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10">
         <v>45788</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>45788.620127314818</v>
       </c>
     </row>
@@ -1961,12 +1851,12 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="12">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10">
         <v>45788</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>45788.620335648149</v>
       </c>
     </row>
@@ -1975,12 +1865,12 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="12">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10">
         <v>45788</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>45788.629016203704</v>
       </c>
     </row>
@@ -1989,12 +1879,12 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="12">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10">
         <v>45788</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>45788.630462962959</v>
       </c>
     </row>
@@ -2003,12 +1893,12 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="12">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10">
         <v>45788</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>45788.631226851852</v>
       </c>
     </row>
@@ -2017,12 +1907,12 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10">
         <v>45788</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>45788.639490740738</v>
       </c>
     </row>
@@ -2031,12 +1921,12 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="12">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10">
         <v>45788</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>45788.647337962961</v>
       </c>
     </row>
@@ -2045,12 +1935,12 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="12">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10">
         <v>45788</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>45788.648368055554</v>
       </c>
     </row>
@@ -2059,12 +1949,12 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="12">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10">
         <v>45788</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>45788.648460648146</v>
       </c>
     </row>
@@ -2073,12 +1963,12 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="12">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10">
         <v>45788</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>45788.651354166665</v>
       </c>
     </row>
@@ -2087,12 +1977,12 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="12">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10">
         <v>45788</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>45788.658425925925</v>
       </c>
     </row>
@@ -2101,12 +1991,12 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="12">
+        <v>55</v>
+      </c>
+      <c r="C16" s="10">
         <v>45788</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>45788.662893518522</v>
       </c>
     </row>
@@ -2115,12 +2005,12 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="12">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10">
         <v>45788</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>45788.667997685188</v>
       </c>
     </row>
@@ -2129,12 +2019,12 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="12">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10">
         <v>45788</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>45788.66814814815</v>
       </c>
     </row>
@@ -2143,40 +2033,40 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="12">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10">
         <v>45788</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>45788.670972222222</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="12">
+        <v>54</v>
+      </c>
+      <c r="C20" s="10">
         <v>45788</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>45788.817129629628</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="12">
+        <v>55</v>
+      </c>
+      <c r="C21" s="10">
         <v>45788</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>45788.817326388889</v>
       </c>
     </row>
@@ -2185,12 +2075,12 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="12">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10">
         <v>45788</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>45788.825254629628</v>
       </c>
     </row>
@@ -2199,12 +2089,12 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="12">
+        <v>55</v>
+      </c>
+      <c r="C23" s="10">
         <v>45788</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>45788.826493055552</v>
       </c>
     </row>
@@ -2213,12 +2103,12 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="12">
+        <v>54</v>
+      </c>
+      <c r="C24" s="10">
         <v>45788</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>45788.830648148149</v>
       </c>
     </row>
@@ -2227,12 +2117,12 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="12">
+        <v>55</v>
+      </c>
+      <c r="C25" s="10">
         <v>45788</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>45788.832361111112</v>
       </c>
     </row>
@@ -2241,12 +2131,12 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="12">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10">
         <v>45788</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>45788.832465277781</v>
       </c>
     </row>
@@ -2255,12 +2145,12 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="12">
+        <v>55</v>
+      </c>
+      <c r="C27" s="10">
         <v>45788</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>45788.834189814814</v>
       </c>
     </row>
@@ -2269,12 +2159,12 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="12">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10">
         <v>45788</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>45788.834317129629</v>
       </c>
     </row>
@@ -2283,12 +2173,12 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="12">
+        <v>55</v>
+      </c>
+      <c r="C29" s="10">
         <v>45788</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>45788.835694444446</v>
       </c>
     </row>
@@ -2297,12 +2187,12 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="12">
+        <v>54</v>
+      </c>
+      <c r="C30" s="10">
         <v>45788</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>45788.835740740738</v>
       </c>
     </row>
@@ -2311,12 +2201,12 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13">
+        <v>55</v>
+      </c>
+      <c r="C31" s="10">
         <v>45788</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>45788.837847222225</v>
       </c>
     </row>
@@ -2325,12 +2215,12 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="13">
+        <v>54</v>
+      </c>
+      <c r="C32" s="10">
         <v>45788</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="10">
         <v>45788.845532407409</v>
       </c>
     </row>
@@ -2339,12 +2229,12 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="13">
+        <v>55</v>
+      </c>
+      <c r="C33" s="10">
         <v>45788</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="10">
         <v>45788.845671296294</v>
       </c>
     </row>
@@ -2353,12 +2243,12 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="13">
+        <v>54</v>
+      </c>
+      <c r="C34" s="10">
         <v>45788</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <v>45788.845752314817</v>
       </c>
     </row>
@@ -2367,12 +2257,12 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="13">
+        <v>55</v>
+      </c>
+      <c r="C35" s="10">
         <v>45788</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="10">
         <v>45788.8462037037</v>
       </c>
     </row>
@@ -2381,12 +2271,12 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="13">
+        <v>54</v>
+      </c>
+      <c r="C36" s="10">
         <v>45788</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="10">
         <v>45788.846273148149</v>
       </c>
     </row>
@@ -2395,40 +2285,40 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="13">
+        <v>55</v>
+      </c>
+      <c r="C37" s="10">
         <v>45788</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="10">
         <v>45788.846585648149</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="13">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10">
         <v>45788</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="10">
         <v>45788.846666666665</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="13">
+        <v>55</v>
+      </c>
+      <c r="C39" s="10">
         <v>45788</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="10">
         <v>45788.846817129626</v>
       </c>
     </row>
@@ -2437,12 +2327,12 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="13">
+        <v>54</v>
+      </c>
+      <c r="C40" s="10">
         <v>45788</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="10">
         <v>45788.86010416667</v>
       </c>
     </row>
@@ -2451,12 +2341,12 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="14">
+        <v>54</v>
+      </c>
+      <c r="C41" s="10">
         <v>45788</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="10">
         <v>45788.978090277778</v>
       </c>
     </row>
@@ -2465,23 +2355,23 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D42" s="14">
+        <v>54</v>
+      </c>
+      <c r="C42" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D42" s="10">
         <v>45791.700601851851</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15">
       <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D43" s="14">
+        <v>56</v>
+      </c>
+      <c r="C43" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D43" s="10">
         <v>45791.700995370367</v>
       </c>
     </row>
@@ -2490,12 +2380,12 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D44" s="14">
+        <v>55</v>
+      </c>
+      <c r="C44" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D44" s="10">
         <v>45791.701354166667</v>
       </c>
     </row>
@@ -2504,23 +2394,23 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D45" s="14">
+        <v>54</v>
+      </c>
+      <c r="C45" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D45" s="10">
         <v>45791.702268518522</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15">
       <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D46" s="14">
+        <v>57</v>
+      </c>
+      <c r="C46" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D46" s="10">
         <v>45791.702569444446</v>
       </c>
     </row>
@@ -2529,12 +2419,12 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D47" s="14">
+        <v>55</v>
+      </c>
+      <c r="C47" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D47" s="10">
         <v>45791.702905092592</v>
       </c>
     </row>
@@ -2543,26 +2433,26 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D48" s="14">
+        <v>54</v>
+      </c>
+      <c r="C48" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D48" s="10">
         <v>45791.70385416667</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D49" s="14">
+        <v>59</v>
+      </c>
+      <c r="C49" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D49" s="10">
         <v>45791.704189814816</v>
       </c>
     </row>
@@ -2571,26 +2461,26 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D50" s="14">
+        <v>54</v>
+      </c>
+      <c r="C50" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D50" s="10">
         <v>45791.706782407404</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D51" s="14">
+        <v>61</v>
+      </c>
+      <c r="C51" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D51" s="10">
         <v>45791.707025462965</v>
       </c>
     </row>
@@ -2599,12 +2489,12 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="14">
-        <v>45791</v>
-      </c>
-      <c r="D52" s="14">
+        <v>54</v>
+      </c>
+      <c r="C52" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D52" s="10">
         <v>45791.708067129628</v>
       </c>
     </row>
@@ -2613,12 +2503,12 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D53" s="15">
+        <v>55</v>
+      </c>
+      <c r="C53" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D53" s="10">
         <v>45791.708877314813</v>
       </c>
     </row>
@@ -2627,26 +2517,26 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D54" s="15">
+        <v>54</v>
+      </c>
+      <c r="C54" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D54" s="10">
         <v>45791.70894675926</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D55" s="15">
+        <v>56</v>
+      </c>
+      <c r="C55" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D55" s="10">
         <v>45791.709340277775</v>
       </c>
     </row>
@@ -2655,12 +2545,12 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D56" s="15">
+        <v>55</v>
+      </c>
+      <c r="C56" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D56" s="10">
         <v>45791.7103125</v>
       </c>
     </row>
@@ -2669,23 +2559,23 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D57" s="15">
+        <v>54</v>
+      </c>
+      <c r="C57" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D57" s="10">
         <v>45791.711041666669</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15">
       <c r="B58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D58" s="15">
+        <v>63</v>
+      </c>
+      <c r="C58" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D58" s="10">
         <v>45791.712245370371</v>
       </c>
     </row>
@@ -2694,12 +2584,12 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D59" s="15">
+        <v>55</v>
+      </c>
+      <c r="C59" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D59" s="10">
         <v>45791.715173611112</v>
       </c>
     </row>
@@ -2708,12 +2598,12 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D60" s="15">
+        <v>54</v>
+      </c>
+      <c r="C60" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D60" s="10">
         <v>45791.716527777775</v>
       </c>
     </row>
@@ -2722,12 +2612,12 @@
         <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D61" s="15">
+        <v>64</v>
+      </c>
+      <c r="C61" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D61" s="10">
         <v>45791.716840277775</v>
       </c>
     </row>
@@ -2736,12 +2626,12 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D62" s="15">
+        <v>55</v>
+      </c>
+      <c r="C62" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D62" s="10">
         <v>45791.729432870372</v>
       </c>
     </row>
@@ -2750,12 +2640,12 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D63" s="15">
+        <v>54</v>
+      </c>
+      <c r="C63" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D63" s="10">
         <v>45791.750185185185</v>
       </c>
     </row>
@@ -2764,12 +2654,12 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D64" s="15">
+        <v>55</v>
+      </c>
+      <c r="C64" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D64" s="10">
         <v>45791.750277777777</v>
       </c>
     </row>
@@ -2778,12 +2668,12 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D65" s="15">
+        <v>54</v>
+      </c>
+      <c r="C65" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D65" s="10">
         <v>45791.750358796293</v>
       </c>
     </row>
@@ -2792,12 +2682,12 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D66" s="15">
+        <v>55</v>
+      </c>
+      <c r="C66" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D66" s="10">
         <v>45791.750405092593</v>
       </c>
     </row>
@@ -2806,12 +2696,12 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D67" s="15">
+        <v>54</v>
+      </c>
+      <c r="C67" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D67" s="10">
         <v>45791.750879629632</v>
       </c>
     </row>
@@ -2820,12 +2710,12 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D68" s="15">
+        <v>55</v>
+      </c>
+      <c r="C68" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D68" s="10">
         <v>45791.7512037037</v>
       </c>
     </row>
@@ -2834,12 +2724,12 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D69" s="15">
+        <v>54</v>
+      </c>
+      <c r="C69" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D69" s="10">
         <v>45791.751423611109</v>
       </c>
     </row>
@@ -2848,12 +2738,12 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D70" s="15">
+        <v>55</v>
+      </c>
+      <c r="C70" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D70" s="10">
         <v>45791.752893518518</v>
       </c>
     </row>
@@ -2862,12 +2752,12 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D71" s="15">
+        <v>54</v>
+      </c>
+      <c r="C71" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D71" s="10">
         <v>45791.759664351855</v>
       </c>
     </row>
@@ -2876,12 +2766,12 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D72" s="15">
+        <v>65</v>
+      </c>
+      <c r="C72" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D72" s="10">
         <v>45791.759756944448</v>
       </c>
     </row>
@@ -2890,12 +2780,12 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D73" s="15">
+        <v>66</v>
+      </c>
+      <c r="C73" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D73" s="10">
         <v>45791.759791666664</v>
       </c>
     </row>
@@ -2904,12 +2794,12 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D74" s="15">
+        <v>54</v>
+      </c>
+      <c r="C74" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D74" s="10">
         <v>45791.769571759258</v>
       </c>
     </row>
@@ -2918,12 +2808,12 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D75" s="15">
+        <v>65</v>
+      </c>
+      <c r="C75" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D75" s="10">
         <v>45791.769953703704</v>
       </c>
     </row>
@@ -2932,12 +2822,12 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D76" s="15">
+        <v>65</v>
+      </c>
+      <c r="C76" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D76" s="10">
         <v>45791.770208333335</v>
       </c>
     </row>
@@ -2946,12 +2836,12 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D77" s="15">
+        <v>55</v>
+      </c>
+      <c r="C77" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D77" s="10">
         <v>45791.770868055559</v>
       </c>
     </row>
@@ -2960,12 +2850,12 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D78" s="15">
+        <v>54</v>
+      </c>
+      <c r="C78" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D78" s="10">
         <v>45791.849965277775</v>
       </c>
     </row>
@@ -2974,12 +2864,12 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D79" s="15">
+        <v>67</v>
+      </c>
+      <c r="C79" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D79" s="10">
         <v>45791.850057870368</v>
       </c>
     </row>
@@ -2988,12 +2878,12 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D80" s="15">
+        <v>54</v>
+      </c>
+      <c r="C80" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D80" s="10">
         <v>45791.855046296296</v>
       </c>
     </row>
@@ -3002,12 +2892,12 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D81" s="15">
+        <v>68</v>
+      </c>
+      <c r="C81" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D81" s="10">
         <v>45791.855196759258</v>
       </c>
     </row>
@@ -3016,12 +2906,12 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D82" s="15">
+        <v>69</v>
+      </c>
+      <c r="C82" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D82" s="10">
         <v>45791.855428240742</v>
       </c>
     </row>
@@ -3030,12 +2920,12 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D83" s="15">
+        <v>55</v>
+      </c>
+      <c r="C83" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D83" s="10">
         <v>45791.855497685188</v>
       </c>
     </row>
@@ -3044,12 +2934,12 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D84" s="15">
+        <v>54</v>
+      </c>
+      <c r="C84" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D84" s="10">
         <v>45791.856724537036</v>
       </c>
     </row>
@@ -3058,12 +2948,12 @@
         <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D85" s="15">
+        <v>70</v>
+      </c>
+      <c r="C85" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D85" s="10">
         <v>45791.856805555559</v>
       </c>
     </row>
@@ -3072,12 +2962,12 @@
         <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D86" s="15">
+        <v>71</v>
+      </c>
+      <c r="C86" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D86" s="10">
         <v>45791.856909722221</v>
       </c>
     </row>
@@ -3086,12 +2976,12 @@
         <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D87" s="15">
+        <v>72</v>
+      </c>
+      <c r="C87" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D87" s="10">
         <v>45791.856979166667</v>
       </c>
     </row>
@@ -3100,12 +2990,12 @@
         <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D88" s="15">
+        <v>68</v>
+      </c>
+      <c r="C88" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D88" s="10">
         <v>45791.857222222221</v>
       </c>
     </row>
@@ -3114,12 +3004,12 @@
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D89" s="15">
+        <v>67</v>
+      </c>
+      <c r="C89" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D89" s="10">
         <v>45791.85733796296</v>
       </c>
     </row>
@@ -3128,12 +3018,12 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D90" s="15">
+        <v>55</v>
+      </c>
+      <c r="C90" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D90" s="10">
         <v>45791.857997685183</v>
       </c>
     </row>
@@ -3142,12 +3032,12 @@
         <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D91" s="15">
+        <v>54</v>
+      </c>
+      <c r="C91" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D91" s="10">
         <v>45791.864953703705</v>
       </c>
     </row>
@@ -3156,12 +3046,12 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D92" s="15">
+        <v>69</v>
+      </c>
+      <c r="C92" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D92" s="10">
         <v>45791.865069444444</v>
       </c>
     </row>
@@ -3170,12 +3060,12 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D93" s="15">
+        <v>54</v>
+      </c>
+      <c r="C93" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D93" s="10">
         <v>45791.866828703707</v>
       </c>
     </row>
@@ -3184,12 +3074,12 @@
         <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D94" s="15">
+        <v>67</v>
+      </c>
+      <c r="C94" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D94" s="10">
         <v>45791.866909722223</v>
       </c>
     </row>
@@ -3198,12 +3088,12 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D95" s="15">
+        <v>55</v>
+      </c>
+      <c r="C95" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D95" s="10">
         <v>45791.868472222224</v>
       </c>
     </row>
@@ -3212,12 +3102,12 @@
         <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D96" s="15">
+        <v>54</v>
+      </c>
+      <c r="C96" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D96" s="10">
         <v>45791.871689814812</v>
       </c>
     </row>
@@ -3226,12 +3116,12 @@
         <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D97" s="15">
+        <v>69</v>
+      </c>
+      <c r="C97" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D97" s="10">
         <v>45791.871828703705</v>
       </c>
     </row>
@@ -3240,12 +3130,12 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D98" s="15">
+        <v>69</v>
+      </c>
+      <c r="C98" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D98" s="10">
         <v>45791.87195601852</v>
       </c>
     </row>
@@ -3254,12 +3144,12 @@
         <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D99" s="15">
+        <v>55</v>
+      </c>
+      <c r="C99" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D99" s="10">
         <v>45791.872037037036</v>
       </c>
     </row>
@@ -3268,12 +3158,12 @@
         <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
-      </c>
-      <c r="C100" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D100" s="15">
+        <v>54</v>
+      </c>
+      <c r="C100" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D100" s="10">
         <v>45791.872789351852</v>
       </c>
     </row>
@@ -3282,12 +3172,12 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D101" s="15">
+        <v>69</v>
+      </c>
+      <c r="C101" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D101" s="10">
         <v>45791.872881944444</v>
       </c>
     </row>
@@ -3296,12 +3186,12 @@
         <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D102" s="15">
+        <v>54</v>
+      </c>
+      <c r="C102" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D102" s="10">
         <v>45791.873252314814</v>
       </c>
     </row>
@@ -3310,12 +3200,12 @@
         <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
-      </c>
-      <c r="C103" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D103" s="15">
+        <v>69</v>
+      </c>
+      <c r="C103" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D103" s="10">
         <v>45791.873344907406</v>
       </c>
     </row>
@@ -3324,12 +3214,12 @@
         <v>27</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D104" s="15">
+        <v>54</v>
+      </c>
+      <c r="C104" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D104" s="10">
         <v>45791.874189814815</v>
       </c>
     </row>
@@ -3338,12 +3228,12 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D105" s="15">
+        <v>69</v>
+      </c>
+      <c r="C105" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D105" s="10">
         <v>45791.874259259261</v>
       </c>
     </row>
@@ -3352,12 +3242,12 @@
         <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D106" s="15">
+        <v>54</v>
+      </c>
+      <c r="C106" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D106" s="10">
         <v>45791.878055555557</v>
       </c>
     </row>
@@ -3366,12 +3256,12 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D107" s="15">
+        <v>72</v>
+      </c>
+      <c r="C107" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D107" s="10">
         <v>45791.878171296295</v>
       </c>
     </row>
@@ -3380,12 +3270,12 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D108" s="15">
+        <v>54</v>
+      </c>
+      <c r="C108" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D108" s="10">
         <v>45791.892291666663</v>
       </c>
     </row>
@@ -3394,12 +3284,12 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D109" s="15">
+        <v>73</v>
+      </c>
+      <c r="C109" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D109" s="10">
         <v>45791.892372685186</v>
       </c>
     </row>
@@ -3408,12 +3298,12 @@
         <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D110" s="15">
+        <v>54</v>
+      </c>
+      <c r="C110" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D110" s="10">
         <v>45791.894780092596</v>
       </c>
     </row>
@@ -3422,12 +3312,12 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D111" s="15">
+        <v>67</v>
+      </c>
+      <c r="C111" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D111" s="10">
         <v>45791.894861111112</v>
       </c>
     </row>
@@ -3436,12 +3326,12 @@
         <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D112" s="15">
+        <v>69</v>
+      </c>
+      <c r="C112" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D112" s="10">
         <v>45791.894953703704</v>
       </c>
     </row>
@@ -3450,12 +3340,12 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C113" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D113" s="15">
+        <v>67</v>
+      </c>
+      <c r="C113" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D113" s="10">
         <v>45791.895798611113</v>
       </c>
     </row>
@@ -3464,12 +3354,12 @@
         <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D114" s="15">
+        <v>68</v>
+      </c>
+      <c r="C114" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D114" s="10">
         <v>45791.895856481482</v>
       </c>
     </row>
@@ -3478,12 +3368,12 @@
         <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D115" s="15">
+        <v>69</v>
+      </c>
+      <c r="C115" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D115" s="10">
         <v>45791.895995370367</v>
       </c>
     </row>
@@ -3492,12 +3382,12 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D116" s="15">
+        <v>71</v>
+      </c>
+      <c r="C116" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D116" s="10">
         <v>45791.896041666667</v>
       </c>
     </row>
@@ -3506,12 +3396,12 @@
         <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D117" s="15">
+        <v>54</v>
+      </c>
+      <c r="C117" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D117" s="10">
         <v>45791.89943287037</v>
       </c>
     </row>
@@ -3520,12 +3410,12 @@
         <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D118" s="15">
+        <v>74</v>
+      </c>
+      <c r="C118" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D118" s="10">
         <v>45791.899513888886</v>
       </c>
     </row>
@@ -3534,12 +3424,12 @@
         <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D119" s="15">
+        <v>54</v>
+      </c>
+      <c r="C119" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D119" s="10">
         <v>45791.913923611108</v>
       </c>
     </row>
@@ -3548,12 +3438,12 @@
         <v>27</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D120" s="15">
+        <v>75</v>
+      </c>
+      <c r="C120" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D120" s="10">
         <v>45791.914039351854</v>
       </c>
     </row>
@@ -3562,12 +3452,12 @@
         <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
-      </c>
-      <c r="C121" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D121" s="15">
+        <v>55</v>
+      </c>
+      <c r="C121" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D121" s="10">
         <v>45791.914189814815</v>
       </c>
     </row>
@@ -3576,12 +3466,12 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D122" s="15">
+        <v>54</v>
+      </c>
+      <c r="C122" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D122" s="10">
         <v>45791.914918981478</v>
       </c>
     </row>
@@ -3590,12 +3480,12 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D123" s="15">
+        <v>76</v>
+      </c>
+      <c r="C123" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D123" s="10">
         <v>45791.915034722224</v>
       </c>
     </row>
@@ -3604,12 +3494,12 @@
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
-      </c>
-      <c r="C124" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D124" s="15">
+        <v>54</v>
+      </c>
+      <c r="C124" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D124" s="10">
         <v>45791.927916666667</v>
       </c>
     </row>
@@ -3618,12 +3508,12 @@
         <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D125" s="15">
+        <v>77</v>
+      </c>
+      <c r="C125" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D125" s="10">
         <v>45791.928113425929</v>
       </c>
     </row>
@@ -3632,12 +3522,12 @@
         <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>72</v>
-      </c>
-      <c r="C126" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D126" s="15">
+        <v>67</v>
+      </c>
+      <c r="C126" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D126" s="10">
         <v>45791.92827546296</v>
       </c>
     </row>
@@ -3646,12 +3536,12 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
-      </c>
-      <c r="C127" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D127" s="15">
+        <v>70</v>
+      </c>
+      <c r="C127" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D127" s="10">
         <v>45791.928344907406</v>
       </c>
     </row>
@@ -3660,12 +3550,12 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" s="15">
-        <v>45791</v>
-      </c>
-      <c r="D128" s="15">
+        <v>55</v>
+      </c>
+      <c r="C128" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D128" s="10">
         <v>45791.92875</v>
       </c>
     </row>
@@ -3674,12 +3564,12 @@
         <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>59</v>
-      </c>
-      <c r="C129" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D129" s="16">
+        <v>54</v>
+      </c>
+      <c r="C129" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D129" s="10">
         <v>45791.929907407408</v>
       </c>
     </row>
@@ -3688,12 +3578,12 @@
         <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D130" s="16">
+        <v>77</v>
+      </c>
+      <c r="C130" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D130" s="10">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3702,12 +3592,12 @@
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D131" s="16">
+        <v>78</v>
+      </c>
+      <c r="C131" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D131" s="10">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3716,12 +3606,12 @@
         <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C132" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D132" s="16">
+        <v>79</v>
+      </c>
+      <c r="C132" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D132" s="10">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3730,12 +3620,12 @@
         <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D133" s="16">
+        <v>80</v>
+      </c>
+      <c r="C133" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D133" s="10">
         <v>45791.930069444446</v>
       </c>
     </row>
@@ -3744,12 +3634,12 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D134" s="16">
+        <v>54</v>
+      </c>
+      <c r="C134" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D134" s="10">
         <v>45791.931192129632</v>
       </c>
     </row>
@@ -3758,12 +3648,12 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>72</v>
-      </c>
-      <c r="C135" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D135" s="16">
+        <v>67</v>
+      </c>
+      <c r="C135" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D135" s="10">
         <v>45791.931319444448</v>
       </c>
     </row>
@@ -3772,12 +3662,12 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C136" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D136" s="16">
+        <v>68</v>
+      </c>
+      <c r="C136" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D136" s="10">
         <v>45791.931319444448</v>
       </c>
     </row>
@@ -3786,12 +3676,12 @@
         <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D137" s="16">
+        <v>55</v>
+      </c>
+      <c r="C137" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D137" s="10">
         <v>45791.931666666664</v>
       </c>
     </row>
@@ -3800,12 +3690,12 @@
         <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
-      </c>
-      <c r="C138" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D138" s="16">
+        <v>55</v>
+      </c>
+      <c r="C138" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D138" s="10">
         <v>45791.933518518519</v>
       </c>
     </row>
@@ -3814,12 +3704,12 @@
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
-      </c>
-      <c r="C139" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D139" s="16">
+        <v>54</v>
+      </c>
+      <c r="C139" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D139" s="10">
         <v>45791.933611111112</v>
       </c>
     </row>
@@ -3828,12 +3718,12 @@
         <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
-      </c>
-      <c r="C140" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D140" s="16">
+        <v>55</v>
+      </c>
+      <c r="C140" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D140" s="10">
         <v>45791.936006944445</v>
       </c>
     </row>
@@ -3842,12 +3732,12 @@
         <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D141" s="16">
+        <v>54</v>
+      </c>
+      <c r="C141" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D141" s="10">
         <v>45791.93608796296</v>
       </c>
     </row>
@@ -3856,12 +3746,12 @@
         <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" s="16">
-        <v>45791</v>
-      </c>
-      <c r="D142" s="16">
+        <v>55</v>
+      </c>
+      <c r="C142" s="10">
+        <v>45791</v>
+      </c>
+      <c r="D142" s="10">
         <v>45791.936203703706</v>
       </c>
     </row>
@@ -3870,12 +3760,12 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>59</v>
-      </c>
-      <c r="C143" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D143" s="16">
+        <v>54</v>
+      </c>
+      <c r="C143" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D143" s="10">
         <v>45792.126493055555</v>
       </c>
     </row>
@@ -3884,12 +3774,12 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D144" s="16">
+        <v>79</v>
+      </c>
+      <c r="C144" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D144" s="10">
         <v>45792.126770833333</v>
       </c>
     </row>
@@ -3898,12 +3788,12 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D145" s="16">
+        <v>80</v>
+      </c>
+      <c r="C145" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D145" s="10">
         <v>45792.126979166664</v>
       </c>
     </row>
@@ -3912,12 +3802,12 @@
         <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>59</v>
-      </c>
-      <c r="C146" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D146" s="16">
+        <v>54</v>
+      </c>
+      <c r="C146" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D146" s="10">
         <v>45792.127569444441</v>
       </c>
     </row>
@@ -3926,12 +3816,12 @@
         <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>59</v>
-      </c>
-      <c r="C147" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D147" s="16">
+        <v>54</v>
+      </c>
+      <c r="C147" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D147" s="10">
         <v>45792.131018518521</v>
       </c>
     </row>
@@ -3940,12 +3830,12 @@
         <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
-      </c>
-      <c r="C148" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D148" s="16">
+        <v>81</v>
+      </c>
+      <c r="C148" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D148" s="10">
         <v>45792.131157407406</v>
       </c>
     </row>
@@ -3954,12 +3844,12 @@
         <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D149" s="16">
+        <v>77</v>
+      </c>
+      <c r="C149" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D149" s="10">
         <v>45792.131284722222</v>
       </c>
     </row>
@@ -3968,12 +3858,12 @@
         <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D150" s="16">
+        <v>78</v>
+      </c>
+      <c r="C150" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D150" s="10">
         <v>45792.131284722222</v>
       </c>
     </row>
@@ -3982,12 +3872,12 @@
         <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>59</v>
-      </c>
-      <c r="C151" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D151" s="16">
+        <v>54</v>
+      </c>
+      <c r="C151" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D151" s="10">
         <v>45792.137465277781</v>
       </c>
     </row>
@@ -3996,12 +3886,12 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>72</v>
-      </c>
-      <c r="C152" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D152" s="16">
+        <v>67</v>
+      </c>
+      <c r="C152" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D152" s="10">
         <v>45792.13758101852</v>
       </c>
     </row>
@@ -4010,12 +3900,12 @@
         <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>73</v>
-      </c>
-      <c r="C153" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D153" s="16">
+        <v>68</v>
+      </c>
+      <c r="C153" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D153" s="10">
         <v>45792.13758101852</v>
       </c>
     </row>
@@ -4024,12 +3914,12 @@
         <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D154" s="16">
+        <v>77</v>
+      </c>
+      <c r="C154" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D154" s="10">
         <v>45792.137881944444</v>
       </c>
     </row>
@@ -4038,12 +3928,12 @@
         <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D155" s="16">
+        <v>78</v>
+      </c>
+      <c r="C155" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D155" s="10">
         <v>45792.137881944444</v>
       </c>
     </row>
@@ -4052,12 +3942,12 @@
         <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D156" s="16">
+        <v>80</v>
+      </c>
+      <c r="C156" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D156" s="10">
         <v>45792.137881944444</v>
       </c>
     </row>
@@ -4066,12 +3956,12 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>72</v>
-      </c>
-      <c r="C157" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D157" s="16">
+        <v>67</v>
+      </c>
+      <c r="C157" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D157" s="10">
         <v>45792.138009259259</v>
       </c>
     </row>
@@ -4080,12 +3970,12 @@
         <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>59</v>
-      </c>
-      <c r="C158" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D158" s="16">
+        <v>54</v>
+      </c>
+      <c r="C158" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D158" s="10">
         <v>45792.138877314814</v>
       </c>
     </row>
@@ -4094,12 +3984,12 @@
         <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>73</v>
-      </c>
-      <c r="C159" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D159" s="16">
+        <v>68</v>
+      </c>
+      <c r="C159" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D159" s="10">
         <v>45792.138993055552</v>
       </c>
     </row>
@@ -4108,12 +3998,12 @@
         <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
-      </c>
-      <c r="C160" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D160" s="16">
+        <v>70</v>
+      </c>
+      <c r="C160" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D160" s="10">
         <v>45792.139155092591</v>
       </c>
     </row>
@@ -4122,12 +4012,12 @@
         <v>27</v>
       </c>
       <c r="B161" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D161" s="16">
+        <v>81</v>
+      </c>
+      <c r="C161" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D161" s="10">
         <v>45792.139155092591</v>
       </c>
     </row>
@@ -4136,12 +4026,12 @@
         <v>27</v>
       </c>
       <c r="B162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D162" s="16">
+        <v>77</v>
+      </c>
+      <c r="C162" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D162" s="10">
         <v>45792.139270833337</v>
       </c>
     </row>
@@ -4150,12 +4040,12 @@
         <v>27</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D163" s="16">
+        <v>78</v>
+      </c>
+      <c r="C163" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D163" s="10">
         <v>45792.139270833337</v>
       </c>
     </row>
@@ -4164,12 +4054,12 @@
         <v>27</v>
       </c>
       <c r="B164" t="s">
-        <v>60</v>
-      </c>
-      <c r="C164" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D164" s="16">
+        <v>55</v>
+      </c>
+      <c r="C164" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D164" s="10">
         <v>45792.141886574071</v>
       </c>
     </row>
@@ -4178,26 +4068,26 @@
         <v>27</v>
       </c>
       <c r="B165" t="s">
-        <v>59</v>
-      </c>
-      <c r="C165" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D165" s="16">
+        <v>54</v>
+      </c>
+      <c r="C165" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D165" s="10">
         <v>45792.141967592594</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15">
       <c r="A166" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C166" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D166" s="16">
+        <v>83</v>
+      </c>
+      <c r="C166" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D166" s="10">
         <v>45792.142430555556</v>
       </c>
     </row>
@@ -4206,12 +4096,12 @@
         <v>27</v>
       </c>
       <c r="B167" t="s">
-        <v>89</v>
-      </c>
-      <c r="C167" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D167" s="16">
+        <v>84</v>
+      </c>
+      <c r="C167" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D167" s="10">
         <v>45792.142777777779</v>
       </c>
     </row>
@@ -4220,12 +4110,12 @@
         <v>27</v>
       </c>
       <c r="B168" t="s">
-        <v>90</v>
-      </c>
-      <c r="C168" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D168" s="16">
+        <v>85</v>
+      </c>
+      <c r="C168" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D168" s="10">
         <v>45792.142881944441</v>
       </c>
     </row>
@@ -4234,12 +4124,12 @@
         <v>27</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
-      </c>
-      <c r="C169" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D169" s="16">
+        <v>84</v>
+      </c>
+      <c r="C169" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D169" s="10">
         <v>45792.143020833333</v>
       </c>
     </row>
@@ -4248,12 +4138,12 @@
         <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
-      </c>
-      <c r="C170" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D170" s="16">
+        <v>55</v>
+      </c>
+      <c r="C170" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D170" s="10">
         <v>45792.1434375</v>
       </c>
     </row>
@@ -4262,12 +4152,12 @@
         <v>27</v>
       </c>
       <c r="B171" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D171" s="16">
+        <v>54</v>
+      </c>
+      <c r="C171" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D171" s="10">
         <v>45792.143831018519</v>
       </c>
     </row>
@@ -4276,12 +4166,12 @@
         <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
-      </c>
-      <c r="C172" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D172" s="16">
+        <v>86</v>
+      </c>
+      <c r="C172" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D172" s="10">
         <v>45792.144097222219</v>
       </c>
     </row>
@@ -4290,12 +4180,12 @@
         <v>27</v>
       </c>
       <c r="B173" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D173" s="16">
+        <v>55</v>
+      </c>
+      <c r="C173" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D173" s="10">
         <v>45792.144363425927</v>
       </c>
     </row>
@@ -4304,12 +4194,12 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D174" s="16">
+        <v>54</v>
+      </c>
+      <c r="C174" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D174" s="10">
         <v>45792.144409722219</v>
       </c>
     </row>
@@ -4318,12 +4208,12 @@
         <v>27</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
-      </c>
-      <c r="C175" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D175" s="16">
+        <v>55</v>
+      </c>
+      <c r="C175" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D175" s="10">
         <v>45792.144467592596</v>
       </c>
     </row>
@@ -4332,12 +4222,12 @@
         <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D176" s="16">
+        <v>54</v>
+      </c>
+      <c r="C176" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D176" s="10">
         <v>45792.144780092596</v>
       </c>
     </row>
@@ -4346,12 +4236,12 @@
         <v>27</v>
       </c>
       <c r="B177" t="s">
-        <v>92</v>
-      </c>
-      <c r="C177" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D177" s="16">
+        <v>87</v>
+      </c>
+      <c r="C177" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D177" s="10">
         <v>45792.144907407404</v>
       </c>
     </row>
@@ -4360,12 +4250,12 @@
         <v>27</v>
       </c>
       <c r="B178" t="s">
-        <v>90</v>
-      </c>
-      <c r="C178" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D178" s="16">
+        <v>85</v>
+      </c>
+      <c r="C178" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D178" s="10">
         <v>45792.144907407404</v>
       </c>
     </row>
@@ -4374,12 +4264,12 @@
         <v>27</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D179" s="16">
+        <v>54</v>
+      </c>
+      <c r="C179" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D179" s="10">
         <v>45792.145219907405</v>
       </c>
     </row>
@@ -4388,12 +4278,12 @@
         <v>27</v>
       </c>
       <c r="B180" t="s">
-        <v>59</v>
-      </c>
-      <c r="C180" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D180" s="16">
+        <v>54</v>
+      </c>
+      <c r="C180" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D180" s="10">
         <v>45792.145694444444</v>
       </c>
     </row>
@@ -4402,26 +4292,26 @@
         <v>27</v>
       </c>
       <c r="B181" t="s">
-        <v>72</v>
-      </c>
-      <c r="C181" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D181" s="16">
+        <v>67</v>
+      </c>
+      <c r="C181" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D181" s="10">
         <v>45792.145787037036</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15">
       <c r="A182" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
-      </c>
-      <c r="C182" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D182" s="16">
+        <v>88</v>
+      </c>
+      <c r="C182" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D182" s="10">
         <v>45792.14634259259</v>
       </c>
     </row>
@@ -4430,12 +4320,12 @@
         <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D183" s="16">
+        <v>55</v>
+      </c>
+      <c r="C183" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D183" s="10">
         <v>45792.146863425929</v>
       </c>
     </row>
@@ -4444,12 +4334,12 @@
         <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
-      </c>
-      <c r="C184" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D184" s="16">
+        <v>54</v>
+      </c>
+      <c r="C184" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D184" s="10">
         <v>45792.1484375</v>
       </c>
     </row>
@@ -4458,12 +4348,12 @@
         <v>27</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
-      </c>
-      <c r="C185" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D185" s="16">
+        <v>89</v>
+      </c>
+      <c r="C185" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D185" s="10">
         <v>45792.148599537039</v>
       </c>
     </row>
@@ -4472,12 +4362,12 @@
         <v>27</v>
       </c>
       <c r="B186" t="s">
-        <v>95</v>
-      </c>
-      <c r="C186" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D186" s="16">
+        <v>90</v>
+      </c>
+      <c r="C186" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D186" s="10">
         <v>45792.148680555554</v>
       </c>
     </row>
@@ -4486,12 +4376,12 @@
         <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>96</v>
-      </c>
-      <c r="C187" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D187" s="16">
+        <v>91</v>
+      </c>
+      <c r="C187" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D187" s="10">
         <v>45792.149004629631</v>
       </c>
     </row>
@@ -4500,12 +4390,12 @@
         <v>27</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
-      </c>
-      <c r="C188" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D188" s="16">
+        <v>55</v>
+      </c>
+      <c r="C188" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D188" s="10">
         <v>45792.149375</v>
       </c>
     </row>
@@ -4514,12 +4404,12 @@
         <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
-      </c>
-      <c r="C189" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D189" s="16">
+        <v>54</v>
+      </c>
+      <c r="C189" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D189" s="10">
         <v>45792.149502314816</v>
       </c>
     </row>
@@ -4528,12 +4418,12 @@
         <v>27</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
-      </c>
-      <c r="C190" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D190" s="16">
+        <v>92</v>
+      </c>
+      <c r="C190" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D190" s="10">
         <v>45792.149814814817</v>
       </c>
     </row>
@@ -4542,12 +4432,12 @@
         <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
-      </c>
-      <c r="C191" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D191" s="16">
+        <v>55</v>
+      </c>
+      <c r="C191" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D191" s="10">
         <v>45792.151712962965</v>
       </c>
     </row>
@@ -4556,12 +4446,12 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
-      </c>
-      <c r="C192" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D192" s="16">
+        <v>54</v>
+      </c>
+      <c r="C192" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D192" s="10">
         <v>45792.15179398148</v>
       </c>
     </row>
@@ -4570,12 +4460,12 @@
         <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
-      </c>
-      <c r="C193" s="16">
-        <v>45792</v>
-      </c>
-      <c r="D193" s="16">
+        <v>55</v>
+      </c>
+      <c r="C193" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D193" s="10">
         <v>45792.15185185185</v>
       </c>
     </row>
@@ -4584,12 +4474,12 @@
         <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
-      </c>
-      <c r="C194" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D194" s="17">
+        <v>54</v>
+      </c>
+      <c r="C194" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D194" s="10">
         <v>45792.152418981481</v>
       </c>
     </row>
@@ -4598,12 +4488,12 @@
         <v>27</v>
       </c>
       <c r="B195" t="s">
-        <v>98</v>
-      </c>
-      <c r="C195" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D195" s="17">
+        <v>93</v>
+      </c>
+      <c r="C195" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D195" s="10">
         <v>45792.153761574074</v>
       </c>
     </row>
@@ -4612,12 +4502,12 @@
         <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D196" s="17">
+        <v>55</v>
+      </c>
+      <c r="C196" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D196" s="10">
         <v>45792.154027777775</v>
       </c>
     </row>
@@ -4626,12 +4516,12 @@
         <v>27</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
-      </c>
-      <c r="C197" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D197" s="17">
+        <v>54</v>
+      </c>
+      <c r="C197" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D197" s="10">
         <v>45792.1575</v>
       </c>
     </row>
@@ -4640,12 +4530,12 @@
         <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>99</v>
-      </c>
-      <c r="C198" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D198" s="17">
+        <v>94</v>
+      </c>
+      <c r="C198" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D198" s="10">
         <v>45792.157604166663</v>
       </c>
     </row>
@@ -4654,12 +4544,12 @@
         <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
-      </c>
-      <c r="C199" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D199" s="17">
+        <v>55</v>
+      </c>
+      <c r="C199" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D199" s="10">
         <v>45792.15797453704</v>
       </c>
     </row>
@@ -4668,12 +4558,12 @@
         <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>59</v>
-      </c>
-      <c r="C200" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D200" s="17">
+        <v>54</v>
+      </c>
+      <c r="C200" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D200" s="10">
         <v>45792.158043981479</v>
       </c>
     </row>
@@ -4682,12 +4572,12 @@
         <v>27</v>
       </c>
       <c r="B201" t="s">
-        <v>85</v>
-      </c>
-      <c r="C201" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D201" s="17">
+        <v>80</v>
+      </c>
+      <c r="C201" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D201" s="10">
         <v>45792.158125</v>
       </c>
     </row>
@@ -4696,12 +4586,12 @@
         <v>27</v>
       </c>
       <c r="B202" t="s">
-        <v>60</v>
-      </c>
-      <c r="C202" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D202" s="17">
+        <v>55</v>
+      </c>
+      <c r="C202" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D202" s="10">
         <v>45792.158182870371</v>
       </c>
     </row>
@@ -4710,12 +4600,12 @@
         <v>27</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
-      </c>
-      <c r="C203" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D203" s="17">
+        <v>54</v>
+      </c>
+      <c r="C203" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D203" s="10">
         <v>45792.1584375</v>
       </c>
     </row>
@@ -4724,12 +4614,12 @@
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>86</v>
-      </c>
-      <c r="C204" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D204" s="17">
+        <v>81</v>
+      </c>
+      <c r="C204" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D204" s="10">
         <v>45792.158541666664</v>
       </c>
     </row>
@@ -4738,12 +4628,12 @@
         <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>100</v>
-      </c>
-      <c r="C205" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D205" s="17">
+        <v>95</v>
+      </c>
+      <c r="C205" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D205" s="10">
         <v>45792.158645833333</v>
       </c>
     </row>
@@ -4752,12 +4642,12 @@
         <v>27</v>
       </c>
       <c r="B206" t="s">
-        <v>60</v>
-      </c>
-      <c r="C206" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D206" s="17">
+        <v>55</v>
+      </c>
+      <c r="C206" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D206" s="10">
         <v>45792.158715277779</v>
       </c>
     </row>
@@ -4766,12 +4656,12 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>59</v>
-      </c>
-      <c r="C207" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D207" s="17">
+        <v>54</v>
+      </c>
+      <c r="C207" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D207" s="10">
         <v>45792.162210648145</v>
       </c>
     </row>
@@ -4780,12 +4670,12 @@
         <v>27</v>
       </c>
       <c r="B208" t="s">
-        <v>60</v>
-      </c>
-      <c r="C208" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D208" s="17">
+        <v>55</v>
+      </c>
+      <c r="C208" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D208" s="10">
         <v>45792.162847222222</v>
       </c>
     </row>
@@ -4794,12 +4684,12 @@
         <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>59</v>
-      </c>
-      <c r="C209" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D209" s="17">
+        <v>54</v>
+      </c>
+      <c r="C209" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D209" s="10">
         <v>45792.164918981478</v>
       </c>
     </row>
@@ -4808,12 +4698,12 @@
         <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>60</v>
-      </c>
-      <c r="C210" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D210" s="17">
+        <v>55</v>
+      </c>
+      <c r="C210" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D210" s="10">
         <v>45792.165347222224</v>
       </c>
     </row>
@@ -4822,12 +4712,12 @@
         <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>59</v>
-      </c>
-      <c r="C211" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D211" s="17">
+        <v>54</v>
+      </c>
+      <c r="C211" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D211" s="10">
         <v>45792.165520833332</v>
       </c>
     </row>
@@ -4836,12 +4726,12 @@
         <v>27</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
-      </c>
-      <c r="C212" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D212" s="17">
+        <v>55</v>
+      </c>
+      <c r="C212" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D212" s="10">
         <v>45792.165879629632</v>
       </c>
     </row>
@@ -4850,12 +4740,12 @@
         <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>59</v>
-      </c>
-      <c r="C213" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D213" s="17">
+        <v>54</v>
+      </c>
+      <c r="C213" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D213" s="10">
         <v>45792.1662037037</v>
       </c>
     </row>
@@ -4864,12 +4754,12 @@
         <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>60</v>
-      </c>
-      <c r="C214" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D214" s="17">
+        <v>55</v>
+      </c>
+      <c r="C214" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D214" s="10">
         <v>45792.166608796295</v>
       </c>
     </row>
@@ -4878,12 +4768,12 @@
         <v>27</v>
       </c>
       <c r="B215" t="s">
-        <v>59</v>
-      </c>
-      <c r="C215" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D215" s="17">
+        <v>54</v>
+      </c>
+      <c r="C215" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D215" s="10">
         <v>45792.166712962964</v>
       </c>
     </row>
@@ -4892,12 +4782,12 @@
         <v>27</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
-      </c>
-      <c r="C216" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D216" s="17">
+        <v>55</v>
+      </c>
+      <c r="C216" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D216" s="10">
         <v>45792.170891203707</v>
       </c>
     </row>
@@ -4906,12 +4796,12 @@
         <v>27</v>
       </c>
       <c r="B217" t="s">
-        <v>59</v>
-      </c>
-      <c r="C217" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D217" s="17">
+        <v>54</v>
+      </c>
+      <c r="C217" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D217" s="10">
         <v>45792.170960648145</v>
       </c>
     </row>
@@ -4920,12 +4810,12 @@
         <v>27</v>
       </c>
       <c r="B218" t="s">
-        <v>60</v>
-      </c>
-      <c r="C218" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D218" s="17">
+        <v>55</v>
+      </c>
+      <c r="C218" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D218" s="10">
         <v>45792.172303240739</v>
       </c>
     </row>
@@ -4934,12 +4824,12 @@
         <v>27</v>
       </c>
       <c r="B219" t="s">
-        <v>59</v>
-      </c>
-      <c r="C219" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D219" s="17">
+        <v>54</v>
+      </c>
+      <c r="C219" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D219" s="10">
         <v>45792.172395833331</v>
       </c>
     </row>
@@ -4948,12 +4838,12 @@
         <v>27</v>
       </c>
       <c r="B220" t="s">
-        <v>60</v>
-      </c>
-      <c r="C220" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D220" s="17">
+        <v>55</v>
+      </c>
+      <c r="C220" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D220" s="10">
         <v>45792.174340277779</v>
       </c>
     </row>
@@ -4962,12 +4852,12 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>59</v>
-      </c>
-      <c r="C221" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D221" s="17">
+        <v>54</v>
+      </c>
+      <c r="C221" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D221" s="10">
         <v>45792.174467592595</v>
       </c>
     </row>
@@ -4976,12 +4866,12 @@
         <v>27</v>
       </c>
       <c r="B222" t="s">
-        <v>60</v>
-      </c>
-      <c r="C222" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D222" s="17">
+        <v>55</v>
+      </c>
+      <c r="C222" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D222" s="10">
         <v>45792.175219907411</v>
       </c>
     </row>
@@ -4990,12 +4880,12 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
-      </c>
-      <c r="C223" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D223" s="17">
+        <v>54</v>
+      </c>
+      <c r="C223" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D223" s="10">
         <v>45792.175358796296</v>
       </c>
     </row>
@@ -5004,12 +4894,12 @@
         <v>27</v>
       </c>
       <c r="B224" t="s">
-        <v>60</v>
-      </c>
-      <c r="C224" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D224" s="17">
+        <v>55</v>
+      </c>
+      <c r="C224" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D224" s="10">
         <v>45792.177453703705</v>
       </c>
     </row>
@@ -5018,26 +4908,26 @@
         <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>59</v>
-      </c>
-      <c r="C225" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D225" s="17">
+        <v>54</v>
+      </c>
+      <c r="C225" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D225" s="10">
         <v>45792.177511574075</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15">
       <c r="A226" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B226" t="s">
-        <v>104</v>
-      </c>
-      <c r="C226" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D226" s="17">
+        <v>99</v>
+      </c>
+      <c r="C226" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D226" s="10">
         <v>45792.177974537037</v>
       </c>
     </row>
@@ -5046,12 +4936,12 @@
         <v>27</v>
       </c>
       <c r="B227" t="s">
-        <v>60</v>
-      </c>
-      <c r="C227" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D227" s="17">
+        <v>55</v>
+      </c>
+      <c r="C227" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D227" s="10">
         <v>45792.1784837963</v>
       </c>
     </row>
@@ -5060,26 +4950,26 @@
         <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>59</v>
-      </c>
-      <c r="C228" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D228" s="17">
+        <v>54</v>
+      </c>
+      <c r="C228" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D228" s="10">
         <v>45792.178564814814</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15">
       <c r="A229" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B229" t="s">
-        <v>105</v>
-      </c>
-      <c r="C229" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D229" s="17">
+        <v>100</v>
+      </c>
+      <c r="C229" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D229" s="10">
         <v>45792.1787962963</v>
       </c>
     </row>
@@ -5088,13 +4978,307 @@
         <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>59</v>
-      </c>
-      <c r="C230" s="17">
-        <v>45792</v>
-      </c>
-      <c r="D230" s="17">
+        <v>54</v>
+      </c>
+      <c r="C230" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D230" s="10">
         <v>45792.180567129632</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15">
+      <c r="A231" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" s="10">
+        <v>45792</v>
+      </c>
+      <c r="D231" s="10">
+        <v>45792.424432870372</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15">
+      <c r="A232" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232" t="s">
+        <v>54</v>
+      </c>
+      <c r="C232" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D232" s="11">
+        <v>45792.425856481481</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15">
+      <c r="A233" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D233" s="11">
+        <v>45792.425902777781</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15">
+      <c r="A234" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234" t="s">
+        <v>54</v>
+      </c>
+      <c r="C234" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D234" s="11">
+        <v>45792.425995370373</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15">
+      <c r="A235" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B235" t="s">
+        <v>114</v>
+      </c>
+      <c r="C235" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D235" s="11">
+        <v>45792.426388888889</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15">
+      <c r="A236" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B236" t="s">
+        <v>55</v>
+      </c>
+      <c r="C236" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D236" s="11">
+        <v>45792.427141203705</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15">
+      <c r="A237" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237" t="s">
+        <v>54</v>
+      </c>
+      <c r="C237" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D237" s="11">
+        <v>45792.427222222221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15">
+      <c r="A238" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B238" t="s">
+        <v>116</v>
+      </c>
+      <c r="C238" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D238" s="11">
+        <v>45792.427442129629</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15">
+      <c r="A239" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D239" s="11">
+        <v>45792.427789351852</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15">
+      <c r="A240" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D240" s="11">
+        <v>45792.440150462964</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15">
+      <c r="A241" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B241" t="s">
+        <v>118</v>
+      </c>
+      <c r="C241" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D241" s="11">
+        <v>45792.440509259257</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15">
+      <c r="A242" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242" t="s">
+        <v>119</v>
+      </c>
+      <c r="C242" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D242" s="11">
+        <v>45792.440833333334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15">
+      <c r="A243" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B243" t="s">
+        <v>120</v>
+      </c>
+      <c r="C243" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D243" s="11">
+        <v>45792.44091435185</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15">
+      <c r="A244" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244" t="s">
+        <v>55</v>
+      </c>
+      <c r="C244" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D244" s="11">
+        <v>45792.442847222221</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15">
+      <c r="A245" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D245" s="11">
+        <v>45792.442916666667</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15">
+      <c r="A246" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B246" t="s">
+        <v>123</v>
+      </c>
+      <c r="C246" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D246" s="11">
+        <v>45792.444988425923</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15">
+      <c r="A247" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B247" t="s">
+        <v>124</v>
+      </c>
+      <c r="C247" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D247" s="11">
+        <v>45792.445104166669</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15">
+      <c r="A248" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B248" t="s">
+        <v>125</v>
+      </c>
+      <c r="C248" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D248" s="11">
+        <v>45792.445196759261</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15">
+      <c r="A249" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B249" t="s">
+        <v>132</v>
+      </c>
+      <c r="C249" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D249" s="11">
+        <v>45792.446111111109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15">
+      <c r="A250" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B250" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D250" s="11">
+        <v>45792.453796296293</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15">
+      <c r="A251" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" t="s">
+        <v>55</v>
+      </c>
+      <c r="C251" s="11">
+        <v>45792</v>
+      </c>
+      <c r="D251" s="11">
+        <v>45792.454143518517</v>
       </c>
     </row>
   </sheetData>
@@ -5114,42 +5298,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
